--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_6_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>576376.3332062046</v>
+        <v>575707.5686022508</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1688950.610987186</v>
+        <v>1688950.610987187</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736561</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F2" t="n">
-        <v>135.7293992974318</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>119.5504549011779</v>
+        <v>19.80887247914135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,73 +735,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>60.36402868517423</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>59.18642621600367</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>133.3468600696244</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>121.9329941289853</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,76 +814,76 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C4" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="V4" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="H5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>19.80887247914134</v>
+        <v>97.59782943789267</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>60.36402868517425</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>51.85199244433831</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,73 +1051,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E7" t="n">
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>81.39848696833</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>118.5538347744862</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>171.0890268032919</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>353.7641769312709</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="X8" t="n">
         <v>353.7641769312709</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>353.7641769312709</v>
-      </c>
-      <c r="G8" t="n">
-        <v>126.2388014251139</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>185.3566856159496</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>128.1350765233373</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>115.8563505745314</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.62001572138047</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.2252741946951</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>287.2365911523768</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>278.2178951969048</v>
       </c>
       <c r="E11" t="n">
-        <v>299.9600327668103</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>319.1318488547875</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7208067658544</v>
+        <v>320.7208067658543</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.93718612617251</v>
+        <v>66.93718612617249</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.63289187372671</v>
+        <v>86.63289187372669</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>129.7303099128833</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>161.4311081960936</v>
       </c>
       <c r="V11" t="n">
-        <v>242.7316514348742</v>
+        <v>239.7129816262496</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.0317509128311</v>
       </c>
       <c r="X11" t="n">
         <v>287.3320091455777</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.8038455355718</v>
+        <v>298.7286069417764</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>115.2601604716386</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1467,7 +1467,7 @@
         <v>97.15928138583183</v>
       </c>
       <c r="I12" t="n">
-        <v>61.35572843342624</v>
+        <v>16.52925287361003</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.84198506939215</v>
+        <v>90.84198506939214</v>
       </c>
       <c r="C13" t="n">
-        <v>77.04197991479263</v>
+        <v>77.04197991479262</v>
       </c>
       <c r="D13" t="n">
-        <v>60.66334431237102</v>
+        <v>48.3971907517898</v>
       </c>
       <c r="E13" t="n">
-        <v>59.61109416815047</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.07801849633678</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>47.23858341991703</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.20429755119387</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.0032693347279</v>
+        <v>118.0032693347278</v>
       </c>
       <c r="T13" t="n">
-        <v>47.97339210818174</v>
+        <v>139.3094297689275</v>
       </c>
       <c r="U13" t="n">
         <v>193.4320828818335</v>
       </c>
       <c r="V13" t="n">
-        <v>167.2501214690178</v>
+        <v>167.2501214690177</v>
       </c>
       <c r="W13" t="n">
         <v>192.417007539631</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.0621095354341</v>
       </c>
       <c r="Y13" t="n">
         <v>128.9369772915018</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.2252741946951</v>
+        <v>299.225274194695</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>287.2365911523768</v>
       </c>
       <c r="D14" t="n">
-        <v>154.8820630720695</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>299.9600327668103</v>
       </c>
       <c r="F14" t="n">
-        <v>319.1318488547875</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7208067658544</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.93718612617251</v>
+        <v>66.93718612617245</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.63289187372671</v>
+        <v>86.63289187372665</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7303099128833</v>
+        <v>129.7303099128832</v>
       </c>
       <c r="U14" t="n">
-        <v>161.4311081960936</v>
+        <v>161.4311081960935</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>242.7316514348742</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>268.0317509128311</v>
       </c>
       <c r="X14" t="n">
         <v>287.3320091455777</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.7286069417765</v>
+        <v>295.463332134406</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.998772793632</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1692,7 +1692,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>100.7312542838812</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.84198506939215</v>
+        <v>90.84198506939209</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.04197991479258</v>
       </c>
       <c r="D16" t="n">
-        <v>60.66334431237102</v>
+        <v>60.66334431237097</v>
       </c>
       <c r="E16" t="n">
-        <v>59.61109416815047</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.07801849633678</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.19827561110009</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.20429755119387</v>
+        <v>50.20429755119382</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.0032693347278</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3094297689275</v>
+        <v>139.3094297689274</v>
       </c>
       <c r="U16" t="n">
-        <v>193.4320828818336</v>
+        <v>193.4320828818335</v>
       </c>
       <c r="V16" t="n">
-        <v>167.2501214690178</v>
+        <v>167.2501214690177</v>
       </c>
       <c r="W16" t="n">
         <v>192.417007539631</v>
       </c>
       <c r="X16" t="n">
-        <v>74.74951939759207</v>
+        <v>138.062109535434</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.9369772915018</v>
+        <v>66.46652617972755</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>97.15928138583183</v>
       </c>
       <c r="I18" t="n">
-        <v>61.35572843342624</v>
+        <v>16.52925287361003</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>186.0557085195578</v>
       </c>
       <c r="U18" t="n">
-        <v>171.4712490439259</v>
+        <v>216.2977246037428</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>25.21925445784731</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>40.1827188646206</v>
       </c>
       <c r="T19" t="n">
-        <v>61.48887929882022</v>
+        <v>144.0071699762946</v>
       </c>
       <c r="U19" t="n">
         <v>115.6115324117263</v>
@@ -2068,7 +2068,7 @@
         <v>60.24155906532687</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.8539719567163</v>
+        <v>51.11642682139455</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>222.1394822967031</v>
       </c>
       <c r="F20" t="n">
-        <v>241.3112983846802</v>
+        <v>241.311298384682</v>
       </c>
       <c r="G20" t="n">
         <v>242.9002562957471</v>
@@ -2141,7 +2141,7 @@
         <v>164.9111009647669</v>
       </c>
       <c r="W20" t="n">
-        <v>190.2112004427252</v>
+        <v>190.2112004427239</v>
       </c>
       <c r="X20" t="n">
         <v>209.5114586754705</v>
@@ -2175,7 +2175,7 @@
         <v>127.2569928932109</v>
       </c>
       <c r="H21" t="n">
-        <v>97.15928138583183</v>
+        <v>52.33280582601562</v>
       </c>
       <c r="I21" t="n">
         <v>61.35572843342624</v>
@@ -2211,7 +2211,7 @@
         <v>147.8496477111252</v>
       </c>
       <c r="T21" t="n">
-        <v>141.2292329597411</v>
+        <v>186.0557085195578</v>
       </c>
       <c r="U21" t="n">
         <v>216.2977246037428</v>
@@ -2296,7 +2296,7 @@
         <v>115.6115324117263</v>
       </c>
       <c r="V22" t="n">
-        <v>197.1671161342322</v>
+        <v>89.42957099891049</v>
       </c>
       <c r="W22" t="n">
         <v>114.5964570695238</v>
@@ -2305,7 +2305,7 @@
         <v>60.24155906532687</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.11642682139455</v>
+        <v>158.8539719567163</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>97.15928138583183</v>
       </c>
       <c r="I24" t="n">
-        <v>61.35572843342624</v>
+        <v>16.52925287360827</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>2.922021632564256</v>
+        <v>47.7484971923808</v>
       </c>
       <c r="S24" t="n">
         <v>147.8496477111252</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.1827188646206</v>
+        <v>147.9202639999423</v>
       </c>
       <c r="T25" t="n">
         <v>61.48887929882022</v>
@@ -2542,7 +2542,7 @@
         <v>60.24155906532687</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.8539719567163</v>
+        <v>51.11642682139455</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>281.5286707209315</v>
       </c>
       <c r="C26" t="n">
-        <v>269.5399876786132</v>
+        <v>269.5399876786133</v>
       </c>
       <c r="D26" t="n">
         <v>260.5212917231412</v>
       </c>
       <c r="E26" t="n">
-        <v>282.2634292930467</v>
+        <v>282.2634292930468</v>
       </c>
       <c r="F26" t="n">
         <v>301.4352453810239</v>
@@ -2570,10 +2570,10 @@
         <v>303.0242032920908</v>
       </c>
       <c r="H26" t="n">
-        <v>217.3924636089917</v>
+        <v>217.3924636089918</v>
       </c>
       <c r="I26" t="n">
-        <v>49.24058265240892</v>
+        <v>49.24058265240895</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.93628839996312</v>
+        <v>68.93628839996315</v>
       </c>
       <c r="T26" t="n">
         <v>112.0337064391197</v>
@@ -2615,10 +2615,10 @@
         <v>225.0350479611106</v>
       </c>
       <c r="W26" t="n">
-        <v>250.3351474390675</v>
+        <v>250.3351474390676</v>
       </c>
       <c r="X26" t="n">
-        <v>269.6354056718141</v>
+        <v>269.6354056718142</v>
       </c>
       <c r="Y26" t="n">
         <v>281.0320034680129</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.14538159562856</v>
+        <v>73.14538159562859</v>
       </c>
       <c r="C28" t="n">
-        <v>59.34537644102905</v>
+        <v>59.34537644102907</v>
       </c>
       <c r="D28" t="n">
-        <v>42.96674083860744</v>
+        <v>42.96674083860746</v>
       </c>
       <c r="E28" t="n">
-        <v>41.91449069438688</v>
+        <v>41.91449069438691</v>
       </c>
       <c r="F28" t="n">
-        <v>42.38141502257319</v>
+        <v>42.38141502257322</v>
       </c>
       <c r="G28" t="n">
-        <v>58.50167213733651</v>
+        <v>58.50167213733653</v>
       </c>
       <c r="H28" t="n">
-        <v>47.83132351897813</v>
+        <v>47.83132351897816</v>
       </c>
       <c r="I28" t="n">
-        <v>29.54197994615345</v>
+        <v>29.54197994615348</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.50769407743029</v>
+        <v>32.50769407743032</v>
       </c>
       <c r="S28" t="n">
         <v>100.3066658609643</v>
@@ -2767,16 +2767,16 @@
         <v>121.6128262951639</v>
       </c>
       <c r="U28" t="n">
-        <v>175.7354794080699</v>
+        <v>175.73547940807</v>
       </c>
       <c r="V28" t="n">
-        <v>149.5535179952541</v>
+        <v>149.5535179952542</v>
       </c>
       <c r="W28" t="n">
-        <v>174.7204040658674</v>
+        <v>174.7204040658675</v>
       </c>
       <c r="X28" t="n">
-        <v>120.3655060616705</v>
+        <v>120.3655060616706</v>
       </c>
       <c r="Y28" t="n">
         <v>111.2403738177382</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>281.5286707209315</v>
+        <v>281.5286707209316</v>
       </c>
       <c r="C29" t="n">
-        <v>269.5399876786132</v>
+        <v>269.5399876786133</v>
       </c>
       <c r="D29" t="n">
-        <v>260.5212917231412</v>
+        <v>260.5212917231413</v>
       </c>
       <c r="E29" t="n">
-        <v>282.2634292930467</v>
+        <v>282.2634292930468</v>
       </c>
       <c r="F29" t="n">
-        <v>301.4352453810239</v>
+        <v>301.435245381024</v>
       </c>
       <c r="G29" t="n">
-        <v>303.0242032920908</v>
+        <v>303.0242032920909</v>
       </c>
       <c r="H29" t="n">
-        <v>217.3924636089917</v>
+        <v>217.3924636089918</v>
       </c>
       <c r="I29" t="n">
-        <v>49.24058265240892</v>
+        <v>49.240582652409</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.93628839996312</v>
+        <v>68.9362883999632</v>
       </c>
       <c r="T29" t="n">
-        <v>112.0337064391197</v>
+        <v>112.0337064391198</v>
       </c>
       <c r="U29" t="n">
-        <v>143.73450472233</v>
+        <v>143.7345047223301</v>
       </c>
       <c r="V29" t="n">
-        <v>225.0350479611106</v>
+        <v>225.0350479611107</v>
       </c>
       <c r="W29" t="n">
-        <v>250.3351474390675</v>
+        <v>250.3351474390676</v>
       </c>
       <c r="X29" t="n">
-        <v>269.6354056718141</v>
+        <v>269.6354056718142</v>
       </c>
       <c r="Y29" t="n">
-        <v>281.0320034680129</v>
+        <v>281.032003468013</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.14538159562856</v>
+        <v>73.14538159562865</v>
       </c>
       <c r="C31" t="n">
-        <v>59.34537644102905</v>
+        <v>59.34537644102913</v>
       </c>
       <c r="D31" t="n">
-        <v>42.96674083860744</v>
+        <v>42.96674083860752</v>
       </c>
       <c r="E31" t="n">
-        <v>41.91449069438688</v>
+        <v>41.91449069438697</v>
       </c>
       <c r="F31" t="n">
-        <v>42.38141502257319</v>
+        <v>42.38141502257328</v>
       </c>
       <c r="G31" t="n">
-        <v>58.50167213733651</v>
+        <v>58.50167213733659</v>
       </c>
       <c r="H31" t="n">
-        <v>47.83132351897813</v>
+        <v>47.83132351897822</v>
       </c>
       <c r="I31" t="n">
-        <v>29.54197994615345</v>
+        <v>29.54197994615353</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.50769407743029</v>
+        <v>32.50769407743037</v>
       </c>
       <c r="S31" t="n">
-        <v>100.3066658609643</v>
+        <v>100.3066658609644</v>
       </c>
       <c r="T31" t="n">
-        <v>121.6128262951639</v>
+        <v>121.612826295164</v>
       </c>
       <c r="U31" t="n">
-        <v>175.7354794080699</v>
+        <v>175.7354794080701</v>
       </c>
       <c r="V31" t="n">
-        <v>149.5535179952541</v>
+        <v>149.5535179952543</v>
       </c>
       <c r="W31" t="n">
-        <v>174.7204040658674</v>
+        <v>174.7204040658675</v>
       </c>
       <c r="X31" t="n">
-        <v>120.3655060616705</v>
+        <v>120.3655060616706</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.2403738177382</v>
+        <v>111.2403738177383</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>224.6066148360035</v>
+        <v>224.6066148360034</v>
       </c>
       <c r="C32" t="n">
-        <v>212.6179317936852</v>
+        <v>212.6179317936851</v>
       </c>
       <c r="D32" t="n">
-        <v>203.5992358382132</v>
+        <v>203.5992358382131</v>
       </c>
       <c r="E32" t="n">
-        <v>225.3413734081187</v>
+        <v>225.3413734081186</v>
       </c>
       <c r="F32" t="n">
-        <v>244.5131894960959</v>
+        <v>244.5131894960958</v>
       </c>
       <c r="G32" t="n">
-        <v>246.1021474071628</v>
+        <v>246.1021474071627</v>
       </c>
       <c r="H32" t="n">
-        <v>160.4704077240637</v>
+        <v>160.4704077240636</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.0142325150351</v>
+        <v>12.01423251503502</v>
       </c>
       <c r="T32" t="n">
-        <v>55.11165055419167</v>
+        <v>55.11165055419158</v>
       </c>
       <c r="U32" t="n">
-        <v>86.81244883740197</v>
+        <v>86.81244883740189</v>
       </c>
       <c r="V32" t="n">
-        <v>168.1129920761826</v>
+        <v>168.1129920761825</v>
       </c>
       <c r="W32" t="n">
-        <v>193.4130915541395</v>
+        <v>193.4130915541394</v>
       </c>
       <c r="X32" t="n">
-        <v>212.7133497868861</v>
+        <v>212.713349786886</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.1099475830849</v>
+        <v>224.1099475830848</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.22332571070055</v>
+        <v>16.22332571070046</v>
       </c>
       <c r="C34" t="n">
-        <v>2.423320556101032</v>
+        <v>2.423320556100947</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.579616252408491</v>
+        <v>1.579616252408406</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>78.11947943548785</v>
       </c>
       <c r="S34" t="n">
-        <v>43.38460997603625</v>
+        <v>43.38460997603617</v>
       </c>
       <c r="T34" t="n">
-        <v>142.8102498457229</v>
+        <v>64.69077041023579</v>
       </c>
       <c r="U34" t="n">
         <v>118.8134235231419</v>
       </c>
       <c r="V34" t="n">
-        <v>92.63146211032614</v>
+        <v>92.63146211032605</v>
       </c>
       <c r="W34" t="n">
-        <v>117.7983481809394</v>
+        <v>117.7983481809393</v>
       </c>
       <c r="X34" t="n">
-        <v>63.44345017674252</v>
+        <v>63.44345017674243</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.3183179328102</v>
+        <v>54.31831793281012</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.6066148360034</v>
+        <v>224.6066148360035</v>
       </c>
       <c r="C35" t="n">
         <v>212.6179317936852</v>
@@ -3278,7 +3278,7 @@
         <v>244.5131894960959</v>
       </c>
       <c r="G35" t="n">
-        <v>246.1021474071627</v>
+        <v>246.1021474071628</v>
       </c>
       <c r="H35" t="n">
         <v>160.4704077240637</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>12.01423251503508</v>
+        <v>12.0142325150351</v>
       </c>
       <c r="T35" t="n">
-        <v>55.11165055419164</v>
+        <v>55.11165055419167</v>
       </c>
       <c r="U35" t="n">
-        <v>86.81244883740194</v>
+        <v>86.81244883740197</v>
       </c>
       <c r="V35" t="n">
         <v>168.1129920761826</v>
@@ -3332,7 +3332,7 @@
         <v>212.7133497868861</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.1099475830848</v>
+        <v>224.1099475830849</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>97.15928138583183</v>
       </c>
       <c r="I36" t="n">
-        <v>61.35572843342624</v>
+        <v>61.35572843342722</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>216.2977246037428</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261501</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.22332571070052</v>
+        <v>16.22332571070055</v>
       </c>
       <c r="C37" t="n">
-        <v>2.423320556101004</v>
+        <v>2.423320556101032</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.579616252408462</v>
+        <v>1.579616252408491</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.21925445784731</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.38460997603622</v>
+        <v>121.5040894115232</v>
       </c>
       <c r="T37" t="n">
-        <v>64.69077041023584</v>
+        <v>64.69077041023587</v>
       </c>
       <c r="U37" t="n">
         <v>118.8134235231419</v>
       </c>
       <c r="V37" t="n">
-        <v>92.63146211032611</v>
+        <v>92.63146211032614</v>
       </c>
       <c r="W37" t="n">
-        <v>170.6985731585794</v>
+        <v>117.7983481809394</v>
       </c>
       <c r="X37" t="n">
-        <v>63.44345017674249</v>
+        <v>63.44345017674252</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.31831793281017</v>
+        <v>54.3183179328102</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.6066148360034</v>
+        <v>224.6066148360035</v>
       </c>
       <c r="C38" t="n">
-        <v>212.6179317936851</v>
+        <v>212.6179317936852</v>
       </c>
       <c r="D38" t="n">
-        <v>203.5992358382131</v>
+        <v>203.5992358382132</v>
       </c>
       <c r="E38" t="n">
-        <v>225.3413734081186</v>
+        <v>225.3413734081187</v>
       </c>
       <c r="F38" t="n">
-        <v>244.5131894960958</v>
+        <v>244.5131894960959</v>
       </c>
       <c r="G38" t="n">
-        <v>246.1021474071627</v>
+        <v>246.1021474071628</v>
       </c>
       <c r="H38" t="n">
-        <v>160.4704077240636</v>
+        <v>160.4704077240637</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>12.01423251503502</v>
+        <v>12.0142325150351</v>
       </c>
       <c r="T38" t="n">
-        <v>55.11165055419158</v>
+        <v>55.11165055419167</v>
       </c>
       <c r="U38" t="n">
-        <v>86.81244883740189</v>
+        <v>86.81244883740197</v>
       </c>
       <c r="V38" t="n">
-        <v>168.1129920761825</v>
+        <v>168.1129920761826</v>
       </c>
       <c r="W38" t="n">
-        <v>193.4130915541394</v>
+        <v>193.4130915541395</v>
       </c>
       <c r="X38" t="n">
-        <v>212.713349786886</v>
+        <v>212.7133497868861</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.1099475830848</v>
+        <v>224.1099475830849</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>137.4502506396911</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -3600,7 +3600,7 @@
         <v>97.15928138583183</v>
       </c>
       <c r="I39" t="n">
-        <v>61.35572843342624</v>
+        <v>61.35572843342722</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.22332571070046</v>
+        <v>94.34280514618759</v>
       </c>
       <c r="C40" t="n">
-        <v>80.54279999158884</v>
+        <v>2.423320556101032</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.579616252408406</v>
+        <v>1.579616252408491</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.38460997603617</v>
+        <v>43.38460997603625</v>
       </c>
       <c r="T40" t="n">
-        <v>64.69077041023579</v>
+        <v>64.69077041023587</v>
       </c>
       <c r="U40" t="n">
         <v>118.8134235231419</v>
       </c>
       <c r="V40" t="n">
-        <v>92.63146211032605</v>
+        <v>92.63146211032614</v>
       </c>
       <c r="W40" t="n">
-        <v>117.7983481809393</v>
+        <v>117.7983481809394</v>
       </c>
       <c r="X40" t="n">
-        <v>63.44345017674243</v>
+        <v>63.44345017674252</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.31831793281012</v>
+        <v>54.3183179328102</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.6066148360034</v>
+        <v>224.6066148360033</v>
       </c>
       <c r="C41" t="n">
-        <v>212.6179317936852</v>
+        <v>212.6179317936851</v>
       </c>
       <c r="D41" t="n">
-        <v>203.5992358382131</v>
+        <v>203.599235838213</v>
       </c>
       <c r="E41" t="n">
-        <v>225.3413734081187</v>
+        <v>225.3413734081186</v>
       </c>
       <c r="F41" t="n">
-        <v>244.5131894960958</v>
+        <v>244.5131894960957</v>
       </c>
       <c r="G41" t="n">
-        <v>246.1021474071627</v>
+        <v>246.1021474071626</v>
       </c>
       <c r="H41" t="n">
         <v>160.4704077240636</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>12.01423251503505</v>
+        <v>12.01423251503496</v>
       </c>
       <c r="T41" t="n">
-        <v>55.11165055419161</v>
+        <v>55.11165055419153</v>
       </c>
       <c r="U41" t="n">
-        <v>86.81244883740192</v>
+        <v>86.81244883740183</v>
       </c>
       <c r="V41" t="n">
         <v>168.1129920761825</v>
@@ -3803,10 +3803,10 @@
         <v>193.4130915541394</v>
       </c>
       <c r="X41" t="n">
-        <v>212.7133497868861</v>
+        <v>212.713349786886</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.1099475830848</v>
+        <v>224.1099475830847</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.22332571070049</v>
+        <v>16.22332571070041</v>
       </c>
       <c r="C43" t="n">
-        <v>2.423320556100975</v>
+        <v>2.42332055610089</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.579616252408434</v>
+        <v>1.579616252408349</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>48.53736181444309</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.96672759708069</v>
+        <v>43.38460997603611</v>
       </c>
       <c r="T43" t="n">
-        <v>64.69077041023581</v>
+        <v>142.8102498457241</v>
       </c>
       <c r="U43" t="n">
-        <v>118.8134235231419</v>
+        <v>118.8134235231418</v>
       </c>
       <c r="V43" t="n">
-        <v>92.63146211032608</v>
+        <v>92.631462110326</v>
       </c>
       <c r="W43" t="n">
         <v>117.7983481809393</v>
       </c>
       <c r="X43" t="n">
-        <v>63.44345017674246</v>
+        <v>63.44345017674237</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.31831793281015</v>
+        <v>54.31831793281006</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.6066148360034</v>
+        <v>224.6066148360033</v>
       </c>
       <c r="C44" t="n">
-        <v>212.6179317936852</v>
+        <v>212.6179317936851</v>
       </c>
       <c r="D44" t="n">
-        <v>203.5992358382131</v>
+        <v>203.599235838213</v>
       </c>
       <c r="E44" t="n">
-        <v>225.3413734081187</v>
+        <v>225.3413734081186</v>
       </c>
       <c r="F44" t="n">
-        <v>244.5131894960958</v>
+        <v>244.5131894960957</v>
       </c>
       <c r="G44" t="n">
-        <v>246.1021474071627</v>
+        <v>246.1021474071626</v>
       </c>
       <c r="H44" t="n">
-        <v>160.4704077240636</v>
+        <v>160.4704077240654</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.01423251503505</v>
+        <v>12.01423251503496</v>
       </c>
       <c r="T44" t="n">
-        <v>55.11165055419161</v>
+        <v>55.11165055419153</v>
       </c>
       <c r="U44" t="n">
-        <v>86.81244883740192</v>
+        <v>86.81244883740183</v>
       </c>
       <c r="V44" t="n">
         <v>168.1129920761825</v>
@@ -4040,10 +4040,10 @@
         <v>193.4130915541394</v>
       </c>
       <c r="X44" t="n">
-        <v>212.7133497868861</v>
+        <v>212.713349786886</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.1099475830848</v>
+        <v>224.1099475830847</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.22332571070049</v>
+        <v>16.22332571070041</v>
       </c>
       <c r="C46" t="n">
-        <v>2.423320556100975</v>
+        <v>2.42332055610089</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.579616252408434</v>
+        <v>1.579616252408349</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>121.5040894115237</v>
+        <v>43.38460997603611</v>
       </c>
       <c r="T46" t="n">
-        <v>64.69077041023581</v>
+        <v>64.69077041023573</v>
       </c>
       <c r="U46" t="n">
-        <v>118.8134235231419</v>
+        <v>118.8134235231418</v>
       </c>
       <c r="V46" t="n">
-        <v>92.63146211032608</v>
+        <v>92.631462110326</v>
       </c>
       <c r="W46" t="n">
         <v>117.7983481809393</v>
       </c>
       <c r="X46" t="n">
-        <v>63.44345017674246</v>
+        <v>141.5629296122308</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.31831793281015</v>
+        <v>54.31831793281006</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="C2" t="n">
-        <v>405.8171938589879</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="D2" t="n">
-        <v>405.8171938589879</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="E2" t="n">
-        <v>405.8171938589879</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F2" t="n">
-        <v>268.7167905282488</v>
+        <v>167.9677173746765</v>
       </c>
       <c r="G2" t="n">
         <v>147.9587552745337</v>
@@ -4328,52 +4328,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>82.85689621660021</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="K2" t="n">
-        <v>217.2290015210577</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="L2" t="n">
-        <v>217.2290015210577</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2290015210577</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N2" t="n">
-        <v>351.6011068255151</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="O2" t="n">
-        <v>485.9732121299726</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P2" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q2" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="U2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="V2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="W2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="X2" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="Y2" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282.6525533246594</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="C3" t="n">
-        <v>282.6525533246594</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="D3" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F3" t="n">
         <v>10.85835194379454</v>
@@ -4407,52 +4407,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J3" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K3" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L3" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M3" t="n">
-        <v>205.4846037813581</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N3" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="O3" t="n">
+        <v>279.6025625527094</v>
+      </c>
+      <c r="P3" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="P3" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="Q3" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R3" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S3" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T3" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="U3" t="n">
-        <v>419.7529566553985</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V3" t="n">
-        <v>282.6525533246594</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="W3" t="n">
-        <v>282.6525533246594</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="X3" t="n">
-        <v>282.6525533246594</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="Y3" t="n">
-        <v>282.6525533246594</v>
+        <v>208.9325216231946</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C4" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D4" t="n">
         <v>10.85835194379454</v>
@@ -4513,25 +4513,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S4" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T4" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U4" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V4" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W4" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X4" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y4" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C5" t="n">
-        <v>178.0785040241021</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D5" t="n">
-        <v>178.0785040241021</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E5" t="n">
-        <v>178.0785040241021</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F5" t="n">
-        <v>167.9677173746765</v>
+        <v>258.6060038788232</v>
       </c>
       <c r="G5" t="n">
-        <v>30.86731404393731</v>
+        <v>246.5424213734152</v>
       </c>
       <c r="H5" t="n">
-        <v>30.86731404393731</v>
+        <v>109.442018042676</v>
       </c>
       <c r="I5" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J5" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K5" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L5" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M5" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N5" t="n">
-        <v>351.6011068255151</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O5" t="n">
-        <v>448.4853435031901</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q5" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R5" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S5" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T5" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U5" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V5" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W5" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X5" t="n">
-        <v>452.2793106855804</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.3410405844727</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="C6" t="n">
-        <v>216.3410405844727</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D6" t="n">
-        <v>216.3410405844727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E6" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F6" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G6" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H6" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I6" t="n">
         <v>10.85835194379454</v>
@@ -4647,13 +4647,13 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K6" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L6" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M6" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N6" t="n">
         <v>274.1733865808121</v>
@@ -4668,28 +4668,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R6" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S6" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="T6" t="n">
-        <v>268.7167905282488</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="U6" t="n">
-        <v>268.7167905282488</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V6" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="W6" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="X6" t="n">
-        <v>216.3410405844727</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="Y6" t="n">
-        <v>216.3410405844727</v>
+        <v>208.9325216231946</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.2798525126769</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C7" t="n">
-        <v>367.2798525126769</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D7" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E7" t="n">
-        <v>93.0790458511986</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F7" t="n">
-        <v>93.0790458511986</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G7" t="n">
-        <v>93.0790458511986</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H7" t="n">
-        <v>93.0790458511986</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I7" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L7" t="n">
         <v>145.0696190886975</v>
@@ -4735,40 +4735,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P7" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="Q7" t="n">
         <v>542.9175971897271</v>
       </c>
-      <c r="Q7" t="n">
-        <v>504.3802558434161</v>
-      </c>
       <c r="R7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T7" t="n">
-        <v>367.2798525126769</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U7" t="n">
-        <v>367.2798525126769</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V7" t="n">
-        <v>367.2798525126769</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W7" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X7" t="n">
-        <v>367.2798525126769</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.2798525126769</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>870.4901798996084</v>
+        <v>343.044050357596</v>
       </c>
       <c r="C8" t="n">
-        <v>870.4901798996084</v>
+        <v>343.044050357596</v>
       </c>
       <c r="D8" t="n">
-        <v>513.1526274437792</v>
+        <v>223.2927021005393</v>
       </c>
       <c r="E8" t="n">
-        <v>513.1526274437792</v>
+        <v>223.2927021005393</v>
       </c>
       <c r="F8" t="n">
-        <v>155.8150749879501</v>
+        <v>213.1819154511136</v>
       </c>
       <c r="G8" t="n">
-        <v>28.30113415450167</v>
+        <v>201.1183329457057</v>
       </c>
       <c r="H8" t="n">
-        <v>28.30113415450167</v>
+        <v>201.1183329457057</v>
       </c>
       <c r="I8" t="n">
         <v>28.30113415450167</v>
       </c>
       <c r="J8" t="n">
-        <v>28.30113415450167</v>
+        <v>100.2996784273073</v>
       </c>
       <c r="K8" t="n">
-        <v>268.4415061992844</v>
+        <v>340.4400504720901</v>
       </c>
       <c r="L8" t="n">
-        <v>616.3268792842307</v>
+        <v>688.3254235570364</v>
       </c>
       <c r="M8" t="n">
-        <v>966.5534144461889</v>
+        <v>742.2410224205352</v>
       </c>
       <c r="N8" t="n">
-        <v>1015.619869565713</v>
+        <v>1092.467557582493</v>
       </c>
       <c r="O8" t="n">
-        <v>1320.624454038546</v>
+        <v>1092.467557582493</v>
       </c>
       <c r="P8" t="n">
         <v>1320.624454038546</v>
@@ -4829,25 +4829,25 @@
         <v>1415.056707725083</v>
       </c>
       <c r="S8" t="n">
-        <v>1227.827732355438</v>
+        <v>1415.056707725083</v>
       </c>
       <c r="T8" t="n">
-        <v>1227.827732355438</v>
+        <v>1415.056707725083</v>
       </c>
       <c r="U8" t="n">
-        <v>1227.827732355438</v>
+        <v>1415.056707725083</v>
       </c>
       <c r="V8" t="n">
-        <v>1227.827732355438</v>
+        <v>1415.056707725083</v>
       </c>
       <c r="W8" t="n">
-        <v>1227.827732355438</v>
+        <v>1057.719155269254</v>
       </c>
       <c r="X8" t="n">
-        <v>1227.827732355438</v>
+        <v>700.3816028134252</v>
       </c>
       <c r="Y8" t="n">
-        <v>1227.827732355438</v>
+        <v>343.044050357596</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>375.4137089654369</v>
+        <v>405.4151021666148</v>
       </c>
       <c r="C9" t="n">
-        <v>213.7100362063916</v>
+        <v>243.7114294075695</v>
       </c>
       <c r="D9" t="n">
-        <v>96.68341946444068</v>
+        <v>243.7114294075695</v>
       </c>
       <c r="E9" t="n">
         <v>96.68341946444068</v>
@@ -4884,13 +4884,13 @@
         <v>88.55528068760782</v>
       </c>
       <c r="K9" t="n">
-        <v>206.6054724536147</v>
+        <v>318.0458332477965</v>
       </c>
       <c r="L9" t="n">
-        <v>206.6054724536147</v>
+        <v>556.8320076155728</v>
       </c>
       <c r="M9" t="n">
-        <v>556.8320076155728</v>
+        <v>907.058542777531</v>
       </c>
       <c r="N9" t="n">
         <v>907.058542777531</v>
@@ -4908,25 +4908,25 @@
         <v>1355.272438820029</v>
       </c>
       <c r="S9" t="n">
-        <v>1355.272438820029</v>
+        <v>1202.472951832769</v>
       </c>
       <c r="T9" t="n">
-        <v>1166.587334986014</v>
+        <v>1202.472951832769</v>
       </c>
       <c r="U9" t="n">
-        <v>1166.587334986014</v>
+        <v>1202.472951832769</v>
       </c>
       <c r="V9" t="n">
-        <v>1166.587334986014</v>
+        <v>974.0773292811034</v>
       </c>
       <c r="W9" t="n">
-        <v>925.2714662193245</v>
+        <v>732.7614605144134</v>
       </c>
       <c r="X9" t="n">
-        <v>727.354478097119</v>
+        <v>534.844472392208</v>
       </c>
       <c r="Y9" t="n">
-        <v>534.8331517466978</v>
+        <v>534.844472392208</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.35837274032895</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="C10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="D10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="E10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="F10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="G10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="H10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="I10" t="n">
-        <v>88.35837274032895</v>
+        <v>28.30113415450167</v>
       </c>
       <c r="J10" t="n">
         <v>28.30113415450167</v>
@@ -4981,31 +4981,31 @@
         <v>560.3603794004341</v>
       </c>
       <c r="Q10" t="n">
-        <v>543.572484732373</v>
+        <v>521.8230380541231</v>
       </c>
       <c r="R10" t="n">
-        <v>543.572484732373</v>
+        <v>372.3012566685013</v>
       </c>
       <c r="S10" t="n">
-        <v>543.572484732373</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="T10" t="n">
-        <v>310.3935315480519</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="U10" t="n">
-        <v>310.3935315480519</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="V10" t="n">
-        <v>310.3935315480519</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="W10" t="n">
-        <v>310.3935315480519</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="X10" t="n">
-        <v>310.3935315480519</v>
+        <v>158.5914940721889</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.35837274032895</v>
+        <v>158.5914940721889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1357.040794794568</v>
+        <v>1012.723636789828</v>
       </c>
       <c r="C11" t="n">
-        <v>1066.902823933582</v>
+        <v>722.5856659288414</v>
       </c>
       <c r="D11" t="n">
-        <v>1066.902823933582</v>
+        <v>441.557488962271</v>
       </c>
       <c r="E11" t="n">
-        <v>763.9128918458945</v>
+        <v>441.557488962271</v>
       </c>
       <c r="F11" t="n">
-        <v>441.5574889622708</v>
+        <v>441.557488962271</v>
       </c>
       <c r="G11" t="n">
         <v>117.5970780876706</v>
@@ -5069,22 +5069,22 @@
         <v>2411.679966825598</v>
       </c>
       <c r="T11" t="n">
-        <v>2411.679966825598</v>
+        <v>2280.639249741877</v>
       </c>
       <c r="U11" t="n">
-        <v>2411.679966825598</v>
+        <v>2117.577524291278</v>
       </c>
       <c r="V11" t="n">
-        <v>2166.496480527745</v>
+        <v>1875.443199416278</v>
       </c>
       <c r="W11" t="n">
-        <v>2166.496480527745</v>
+        <v>1604.704057080085</v>
       </c>
       <c r="X11" t="n">
-        <v>1876.262127855444</v>
+        <v>1314.469704407784</v>
       </c>
       <c r="Y11" t="n">
-        <v>1659.288546506381</v>
+        <v>1012.723636789828</v>
       </c>
     </row>
     <row r="12">
@@ -5097,46 +5097,46 @@
         <v>875.627196886607</v>
       </c>
       <c r="C12" t="n">
-        <v>759.2027923698002</v>
+        <v>713.9235241275617</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3641553600123</v>
+        <v>575.0848871177737</v>
       </c>
       <c r="E12" t="n">
-        <v>473.3361454168836</v>
+        <v>428.056877174645</v>
       </c>
       <c r="F12" t="n">
-        <v>338.6423473667579</v>
+        <v>293.3630791245193</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0999303029085</v>
+        <v>164.8206620606699</v>
       </c>
       <c r="H12" t="n">
-        <v>111.9592420343915</v>
+        <v>66.67997379215294</v>
       </c>
       <c r="I12" t="n">
         <v>49.98375876830442</v>
       </c>
       <c r="J12" t="n">
-        <v>49.98375876830442</v>
+        <v>127.468802787062</v>
       </c>
       <c r="K12" t="n">
-        <v>231.3073719011341</v>
+        <v>127.468802787062</v>
       </c>
       <c r="L12" t="n">
-        <v>636.7288447592482</v>
+        <v>532.8902756451761</v>
       </c>
       <c r="M12" t="n">
-        <v>1167.973095987597</v>
+        <v>986.9208366851562</v>
       </c>
       <c r="N12" t="n">
-        <v>1726.672704786623</v>
+        <v>1545.620445484182</v>
       </c>
       <c r="O12" t="n">
-        <v>2162.265464442421</v>
+        <v>1981.213205139979</v>
       </c>
       <c r="P12" t="n">
-        <v>2499.187938415221</v>
+        <v>2318.13567911278</v>
       </c>
       <c r="Q12" t="n">
         <v>2499.187938415221</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.693880295141</v>
+        <v>176.6899917648524</v>
       </c>
       <c r="C13" t="n">
-        <v>279.8736985630272</v>
+        <v>98.8698100327386</v>
       </c>
       <c r="D13" t="n">
-        <v>218.5975931969958</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="E13" t="n">
-        <v>158.3843667645206</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="F13" t="n">
-        <v>97.69949959650344</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="G13" t="n">
-        <v>97.69949959650344</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="H13" t="n">
-        <v>97.69949959650344</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="I13" t="n">
         <v>49.98375876830442</v>
       </c>
       <c r="J13" t="n">
-        <v>91.90082220086819</v>
+        <v>91.90082220086811</v>
       </c>
       <c r="K13" t="n">
-        <v>233.2383952437261</v>
+        <v>233.238395243726</v>
       </c>
       <c r="L13" t="n">
-        <v>446.5467573235979</v>
+        <v>446.5467573235978</v>
       </c>
       <c r="M13" t="n">
-        <v>678.4772654290948</v>
+        <v>678.4772654290946</v>
       </c>
       <c r="N13" t="n">
-        <v>910.2667048682933</v>
+        <v>910.2667048682932</v>
       </c>
       <c r="O13" t="n">
         <v>1120.311285613431</v>
@@ -5218,31 +5218,31 @@
         <v>1291.741520120436</v>
       </c>
       <c r="Q13" t="n">
-        <v>1356.74350983603</v>
+        <v>1356.743509836029</v>
       </c>
       <c r="R13" t="n">
-        <v>1306.032098168157</v>
+        <v>1356.743509836029</v>
       </c>
       <c r="S13" t="n">
-        <v>1186.836876617927</v>
+        <v>1237.548288285799</v>
       </c>
       <c r="T13" t="n">
-        <v>1138.378904791481</v>
+        <v>1096.83169255961</v>
       </c>
       <c r="U13" t="n">
-        <v>942.9929624865982</v>
+        <v>901.4457502547278</v>
       </c>
       <c r="V13" t="n">
-        <v>774.0534458512268</v>
+        <v>732.5062336193564</v>
       </c>
       <c r="W13" t="n">
-        <v>579.6928321748319</v>
+        <v>538.1456199429615</v>
       </c>
       <c r="X13" t="n">
-        <v>579.6928321748319</v>
+        <v>398.6889436445433</v>
       </c>
       <c r="Y13" t="n">
-        <v>449.4534611733148</v>
+        <v>268.4495726430263</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1223.349352289208</v>
+        <v>710.7249810363448</v>
       </c>
       <c r="C14" t="n">
-        <v>1223.349352289208</v>
+        <v>420.5870101753582</v>
       </c>
       <c r="D14" t="n">
-        <v>1066.902823933582</v>
+        <v>420.5870101753582</v>
       </c>
       <c r="E14" t="n">
-        <v>763.9128918458947</v>
+        <v>117.5970780876705</v>
       </c>
       <c r="F14" t="n">
-        <v>441.557488962271</v>
+        <v>117.5970780876705</v>
       </c>
       <c r="G14" t="n">
-        <v>117.5970780876706</v>
+        <v>117.5970780876705</v>
       </c>
       <c r="H14" t="n">
-        <v>117.5970780876706</v>
+        <v>117.5970780876705</v>
       </c>
       <c r="I14" t="n">
         <v>49.98375876830442</v>
@@ -5282,7 +5282,7 @@
         <v>434.4128722059163</v>
       </c>
       <c r="L14" t="n">
-        <v>836.0895964809612</v>
+        <v>836.0895964809611</v>
       </c>
       <c r="M14" t="n">
         <v>1289.182005416801</v>
@@ -5291,13 +5291,13 @@
         <v>1728.335094828514</v>
       </c>
       <c r="O14" t="n">
-        <v>2090.771914922791</v>
+        <v>2090.77191492279</v>
       </c>
       <c r="P14" t="n">
         <v>2367.945895740012</v>
       </c>
       <c r="Q14" t="n">
-        <v>2499.187938415221</v>
+        <v>2499.18793841522</v>
       </c>
       <c r="R14" t="n">
         <v>2499.187938415221</v>
@@ -5312,16 +5312,16 @@
         <v>2117.577524291278</v>
       </c>
       <c r="V14" t="n">
-        <v>2117.577524291278</v>
+        <v>1872.394037993425</v>
       </c>
       <c r="W14" t="n">
-        <v>2117.577524291278</v>
+        <v>1601.654895657232</v>
       </c>
       <c r="X14" t="n">
-        <v>1827.343171618977</v>
+        <v>1311.420542984932</v>
       </c>
       <c r="Y14" t="n">
-        <v>1525.597104001021</v>
+        <v>1012.972732748158</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.9064651288455</v>
+        <v>875.627196886607</v>
       </c>
       <c r="C15" t="n">
-        <v>759.2027923698002</v>
+        <v>713.9235241275617</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3641553600123</v>
+        <v>575.0848871177737</v>
       </c>
       <c r="E15" t="n">
         <v>473.3361454168836</v>
@@ -5355,22 +5355,22 @@
         <v>49.98375876830442</v>
       </c>
       <c r="J15" t="n">
-        <v>49.98375876830442</v>
+        <v>127.468802787062</v>
       </c>
       <c r="K15" t="n">
-        <v>50.25511259869296</v>
+        <v>386.4097036472009</v>
       </c>
       <c r="L15" t="n">
-        <v>455.6765854568071</v>
+        <v>791.8311765053149</v>
       </c>
       <c r="M15" t="n">
-        <v>986.9208366851562</v>
+        <v>1323.075427733664</v>
       </c>
       <c r="N15" t="n">
-        <v>1545.620445484182</v>
+        <v>1881.77503653269</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.213205139979</v>
+        <v>2317.367796188487</v>
       </c>
       <c r="P15" t="n">
         <v>2318.13567911278</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>309.1259128975553</v>
+        <v>189.0800458664494</v>
       </c>
       <c r="C16" t="n">
-        <v>309.1259128975553</v>
+        <v>111.2598641343357</v>
       </c>
       <c r="D16" t="n">
-        <v>247.849807531524</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="E16" t="n">
-        <v>187.6365810990488</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="F16" t="n">
-        <v>126.9517139310318</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="G16" t="n">
         <v>49.98375876830442</v>
@@ -5434,52 +5434,52 @@
         <v>49.98375876830442</v>
       </c>
       <c r="J16" t="n">
-        <v>91.90082220086819</v>
+        <v>91.90082220086825</v>
       </c>
       <c r="K16" t="n">
-        <v>233.238395243726</v>
+        <v>233.2383952437264</v>
       </c>
       <c r="L16" t="n">
-        <v>446.5467573235979</v>
+        <v>446.5467573235983</v>
       </c>
       <c r="M16" t="n">
-        <v>678.4772654290947</v>
+        <v>678.4772654290952</v>
       </c>
       <c r="N16" t="n">
-        <v>910.2667048682933</v>
+        <v>910.2667048682938</v>
       </c>
       <c r="O16" t="n">
-        <v>1120.311285613431</v>
+        <v>1120.311285613432</v>
       </c>
       <c r="P16" t="n">
-        <v>1291.741520120436</v>
+        <v>1291.741520120437</v>
       </c>
       <c r="Q16" t="n">
         <v>1356.74350983603</v>
       </c>
       <c r="R16" t="n">
-        <v>1306.032098168157</v>
+        <v>1306.032098168158</v>
       </c>
       <c r="S16" t="n">
-        <v>1306.032098168157</v>
+        <v>1186.836876617928</v>
       </c>
       <c r="T16" t="n">
-        <v>1165.315502441968</v>
+        <v>1046.120280891738</v>
       </c>
       <c r="U16" t="n">
-        <v>969.9295601370854</v>
+        <v>850.734338586856</v>
       </c>
       <c r="V16" t="n">
-        <v>800.990043501714</v>
+        <v>681.7948219514846</v>
       </c>
       <c r="W16" t="n">
-        <v>606.6294298253191</v>
+        <v>487.4342082750896</v>
       </c>
       <c r="X16" t="n">
-        <v>531.1248647772462</v>
+        <v>347.9775319766713</v>
       </c>
       <c r="Y16" t="n">
-        <v>400.8854937757292</v>
+        <v>280.8396267446233</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>208.8408462558277</v>
       </c>
       <c r="H17" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="I17" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="J17" t="n">
         <v>150.912953948517</v>
@@ -5519,7 +5519,7 @@
         <v>434.4128722059163</v>
       </c>
       <c r="L17" t="n">
-        <v>836.0895964809608</v>
+        <v>836.0895964809611</v>
       </c>
       <c r="M17" t="n">
         <v>1289.182005416801</v>
@@ -5528,19 +5528,19 @@
         <v>1728.335094828514</v>
       </c>
       <c r="O17" t="n">
-        <v>2090.77191492279</v>
+        <v>2090.771914922791</v>
       </c>
       <c r="P17" t="n">
         <v>2367.945895740012</v>
       </c>
       <c r="Q17" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415221</v>
       </c>
       <c r="R17" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415221</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.286583462069</v>
+        <v>2490.28658346207</v>
       </c>
       <c r="T17" t="n">
         <v>2437.852483014821</v>
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.9064651288455</v>
+        <v>875.627196886607</v>
       </c>
       <c r="C18" t="n">
-        <v>759.2027923698002</v>
+        <v>713.9235241275617</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3641553600123</v>
+        <v>575.0848871177737</v>
       </c>
       <c r="E18" t="n">
-        <v>473.3361454168836</v>
+        <v>428.056877174645</v>
       </c>
       <c r="F18" t="n">
-        <v>338.6423473667579</v>
+        <v>293.3630791245193</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0999303029085</v>
+        <v>164.8206620606699</v>
       </c>
       <c r="H18" t="n">
-        <v>111.9592420343915</v>
+        <v>66.67997379215294</v>
       </c>
       <c r="I18" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="J18" t="n">
-        <v>49.9837587683044</v>
+        <v>127.468802787062</v>
       </c>
       <c r="K18" t="n">
-        <v>308.9246596284434</v>
+        <v>386.4097036472009</v>
       </c>
       <c r="L18" t="n">
-        <v>714.3461324865575</v>
+        <v>791.8311765053149</v>
       </c>
       <c r="M18" t="n">
-        <v>1245.590383714907</v>
+        <v>1323.075427733664</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.289992513933</v>
+        <v>1881.77503653269</v>
       </c>
       <c r="O18" t="n">
-        <v>2239.88275216973</v>
+        <v>1981.213205139979</v>
       </c>
       <c r="P18" t="n">
-        <v>2318.135679112779</v>
+        <v>2318.13567911278</v>
       </c>
       <c r="Q18" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415221</v>
       </c>
       <c r="R18" t="n">
         <v>2450.957133170391</v>
@@ -5622,22 +5622,22 @@
         <v>2301.614054674305</v>
       </c>
       <c r="T18" t="n">
-        <v>2113.67899556364</v>
+        <v>2113.678995563641</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.475713701089</v>
+        <v>1895.19644545885</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.080091149423</v>
+        <v>1666.800822907184</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.764222382733</v>
+        <v>1425.484954140494</v>
       </c>
       <c r="X18" t="n">
-        <v>1272.847234260528</v>
+        <v>1227.567966018289</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.325907910106</v>
+        <v>1035.046639667868</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="C19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="D19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="E19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="F19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="G19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="H19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="I19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="J19" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="K19" t="n">
         <v>101.3522801822999</v>
@@ -5692,31 +5692,31 @@
         <v>710.0101469146978</v>
       </c>
       <c r="Q19" t="n">
-        <v>710.0101469146978</v>
+        <v>684.5361525128318</v>
       </c>
       <c r="R19" t="n">
-        <v>710.0101469146978</v>
+        <v>684.5361525128318</v>
       </c>
       <c r="S19" t="n">
-        <v>669.4215420009396</v>
+        <v>643.9475475990736</v>
       </c>
       <c r="T19" t="n">
-        <v>607.3115629112222</v>
+        <v>498.4857597442306</v>
       </c>
       <c r="U19" t="n">
-        <v>490.5322372428118</v>
+        <v>381.7064340758202</v>
       </c>
       <c r="V19" t="n">
-        <v>400.1993372439123</v>
+        <v>291.3735340769207</v>
       </c>
       <c r="W19" t="n">
-        <v>284.4453402039893</v>
+        <v>175.6195370369977</v>
       </c>
       <c r="X19" t="n">
-        <v>223.595280542043</v>
+        <v>114.7694773750514</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.13672301000633</v>
+        <v>63.13672301000634</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1336.279656746936</v>
+        <v>1336.279656746938</v>
       </c>
       <c r="C20" t="n">
-        <v>1124.748302522422</v>
+        <v>1124.748302522424</v>
       </c>
       <c r="D20" t="n">
-        <v>922.3267421923231</v>
+        <v>922.3267421923249</v>
       </c>
       <c r="E20" t="n">
-        <v>697.9434267411078</v>
+        <v>697.9434267411096</v>
       </c>
       <c r="F20" t="n">
         <v>454.1946404939561</v>
@@ -5744,10 +5744,10 @@
         <v>208.8408462558277</v>
       </c>
       <c r="H20" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="I20" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="J20" t="n">
         <v>150.912953948517</v>
@@ -5771,13 +5771,13 @@
         <v>2367.945895740012</v>
       </c>
       <c r="Q20" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415221</v>
       </c>
       <c r="R20" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415221</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.286583462069</v>
+        <v>2490.28658346207</v>
       </c>
       <c r="T20" t="n">
         <v>2437.852483014821</v>
@@ -5789,13 +5789,13 @@
         <v>2186.820504539313</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.68797883959</v>
+        <v>1994.687978839592</v>
       </c>
       <c r="X20" t="n">
-        <v>1783.060242803762</v>
+        <v>1783.060242803763</v>
       </c>
       <c r="Y20" t="n">
-        <v>1559.920791822278</v>
+        <v>1559.920791822279</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.9064651288455</v>
+        <v>875.627196886607</v>
       </c>
       <c r="C21" t="n">
-        <v>759.2027923698002</v>
+        <v>713.9235241275617</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3641553600123</v>
+        <v>575.0848871177737</v>
       </c>
       <c r="E21" t="n">
-        <v>473.3361454168836</v>
+        <v>428.056877174645</v>
       </c>
       <c r="F21" t="n">
-        <v>338.6423473667579</v>
+        <v>293.3630791245193</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0999303029085</v>
+        <v>164.8206620606699</v>
       </c>
       <c r="H21" t="n">
         <v>111.9592420343915</v>
       </c>
       <c r="I21" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="J21" t="n">
         <v>127.468802787062</v>
@@ -5835,10 +5835,10 @@
         <v>386.4097036472009</v>
       </c>
       <c r="L21" t="n">
-        <v>791.8311765053149</v>
+        <v>455.6765854568071</v>
       </c>
       <c r="M21" t="n">
-        <v>1323.075427733664</v>
+        <v>986.9208366851562</v>
       </c>
       <c r="N21" t="n">
         <v>1545.620445484182</v>
@@ -5847,10 +5847,10 @@
         <v>1981.213205139979</v>
       </c>
       <c r="P21" t="n">
-        <v>2318.135679112779</v>
+        <v>2318.13567911278</v>
       </c>
       <c r="Q21" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415221</v>
       </c>
       <c r="R21" t="n">
         <v>2450.957133170391</v>
@@ -5859,22 +5859,22 @@
         <v>2301.614054674305</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.95826380588</v>
+        <v>2113.678995563641</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.475713701089</v>
+        <v>1895.19644545885</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.080091149423</v>
+        <v>1666.800822907184</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.764222382733</v>
+        <v>1425.484954140494</v>
       </c>
       <c r="X21" t="n">
-        <v>1272.847234260528</v>
+        <v>1227.567966018289</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.325907910106</v>
+        <v>1035.046639667868</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="C22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="D22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="E22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="F22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="G22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="H22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="I22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="J22" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830442</v>
       </c>
       <c r="K22" t="n">
         <v>101.3522801822999</v>
@@ -5944,16 +5944,16 @@
         <v>490.5322372428118</v>
       </c>
       <c r="V22" t="n">
-        <v>291.3735340769206</v>
+        <v>400.1993372439123</v>
       </c>
       <c r="W22" t="n">
-        <v>175.6195370369977</v>
+        <v>284.4453402039893</v>
       </c>
       <c r="X22" t="n">
-        <v>114.7694773750513</v>
+        <v>223.595280542043</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.13672301000633</v>
+        <v>63.13672301000634</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1336.279656746937</v>
+        <v>1336.279656746936</v>
       </c>
       <c r="C23" t="n">
-        <v>1124.748302522423</v>
+        <v>1124.748302522422</v>
       </c>
       <c r="D23" t="n">
-        <v>922.326742192324</v>
+        <v>922.3267421923231</v>
       </c>
       <c r="E23" t="n">
-        <v>697.9434267411087</v>
+        <v>697.9434267411078</v>
       </c>
       <c r="F23" t="n">
-        <v>454.194640493957</v>
+        <v>454.1946404939561</v>
       </c>
       <c r="G23" t="n">
         <v>208.8408462558277</v>
       </c>
       <c r="H23" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="I23" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="J23" t="n">
         <v>150.912953948517</v>
       </c>
       <c r="K23" t="n">
-        <v>434.4128722059163</v>
+        <v>434.4128722059151</v>
       </c>
       <c r="L23" t="n">
-        <v>836.0895964809611</v>
+        <v>836.0895964809598</v>
       </c>
       <c r="M23" t="n">
-        <v>1289.182005416801</v>
+        <v>1289.1820054168</v>
       </c>
       <c r="N23" t="n">
-        <v>1728.335094828514</v>
+        <v>1728.335094828513</v>
       </c>
       <c r="O23" t="n">
-        <v>2090.77191492279</v>
+        <v>2090.771914922789</v>
       </c>
       <c r="P23" t="n">
-        <v>2367.945895740012</v>
+        <v>2367.945895740011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415219</v>
       </c>
       <c r="R23" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415219</v>
       </c>
       <c r="S23" t="n">
-        <v>2490.286583462069</v>
+        <v>2490.286583462068</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.852483014821</v>
+        <v>2437.852483014819</v>
       </c>
       <c r="U23" t="n">
-        <v>2353.397374200693</v>
+        <v>2353.397374200692</v>
       </c>
       <c r="V23" t="n">
         <v>2186.820504539312</v>
       </c>
       <c r="W23" t="n">
-        <v>1994.687978839591</v>
+        <v>1994.68797883959</v>
       </c>
       <c r="X23" t="n">
-        <v>1783.060242803763</v>
+        <v>1783.060242803762</v>
       </c>
       <c r="Y23" t="n">
-        <v>1559.920791822278</v>
+        <v>1559.920791822277</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.9064651288455</v>
+        <v>875.6271968866051</v>
       </c>
       <c r="C24" t="n">
-        <v>759.2027923698002</v>
+        <v>713.9235241275599</v>
       </c>
       <c r="D24" t="n">
-        <v>620.3641553600123</v>
+        <v>575.0848871177719</v>
       </c>
       <c r="E24" t="n">
-        <v>473.3361454168836</v>
+        <v>428.0568771746431</v>
       </c>
       <c r="F24" t="n">
-        <v>338.6423473667579</v>
+        <v>293.3630791245175</v>
       </c>
       <c r="G24" t="n">
-        <v>210.0999303029085</v>
+        <v>164.8206620606681</v>
       </c>
       <c r="H24" t="n">
-        <v>111.9592420343915</v>
+        <v>66.67997379215112</v>
       </c>
       <c r="I24" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="J24" t="n">
-        <v>127.468802787062</v>
+        <v>127.4688027870619</v>
       </c>
       <c r="K24" t="n">
         <v>386.4097036472009</v>
@@ -6078,40 +6078,40 @@
         <v>1323.075427733664</v>
       </c>
       <c r="N24" t="n">
-        <v>1545.620445484182</v>
+        <v>1545.62044548418</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.213205139979</v>
+        <v>1981.213205139978</v>
       </c>
       <c r="P24" t="n">
-        <v>2318.135679112779</v>
+        <v>2318.135679112778</v>
       </c>
       <c r="Q24" t="n">
-        <v>2499.18793841522</v>
+        <v>2499.187938415219</v>
       </c>
       <c r="R24" t="n">
-        <v>2496.23640141263</v>
+        <v>2450.95713317039</v>
       </c>
       <c r="S24" t="n">
-        <v>2346.893322916544</v>
+        <v>2301.614054674304</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.95826380588</v>
+        <v>2113.678995563639</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.475713701089</v>
+        <v>1895.196445458848</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.080091149423</v>
+        <v>1666.800822907182</v>
       </c>
       <c r="W24" t="n">
-        <v>1470.764222382733</v>
+        <v>1425.484954140492</v>
       </c>
       <c r="X24" t="n">
-        <v>1272.847234260528</v>
+        <v>1227.567966018287</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.325907910106</v>
+        <v>1035.046639667866</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="C25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="D25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="E25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="F25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="G25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="H25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="I25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="J25" t="n">
-        <v>49.9837587683044</v>
+        <v>49.98375876830438</v>
       </c>
       <c r="K25" t="n">
         <v>101.3522801822999</v>
@@ -6157,7 +6157,7 @@
         <v>366.6530471099437</v>
       </c>
       <c r="N25" t="n">
-        <v>508.4734349202799</v>
+        <v>508.4734349202798</v>
       </c>
       <c r="O25" t="n">
         <v>628.5489640365553</v>
@@ -6172,25 +6172,25 @@
         <v>710.0101469146978</v>
       </c>
       <c r="S25" t="n">
-        <v>669.4215420009396</v>
+        <v>560.595738833948</v>
       </c>
       <c r="T25" t="n">
-        <v>607.3115629112222</v>
+        <v>498.4857597442306</v>
       </c>
       <c r="U25" t="n">
-        <v>490.5322372428118</v>
+        <v>381.7064340758201</v>
       </c>
       <c r="V25" t="n">
-        <v>400.1993372439123</v>
+        <v>291.3735340769206</v>
       </c>
       <c r="W25" t="n">
-        <v>284.4453402039893</v>
+        <v>175.6195370369977</v>
       </c>
       <c r="X25" t="n">
-        <v>223.595280542043</v>
+        <v>114.7694773750513</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.13672301000633</v>
+        <v>63.1367230100063</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6209,25 @@
         <v>1233.356591746077</v>
       </c>
       <c r="E26" t="n">
-        <v>948.2420167025957</v>
+        <v>948.2420167025953</v>
       </c>
       <c r="F26" t="n">
-        <v>643.7619708631778</v>
+        <v>643.7619708631771</v>
       </c>
       <c r="G26" t="n">
-        <v>337.6769170327829</v>
+        <v>337.6769170327823</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0885699529933</v>
+        <v>118.0885699529927</v>
       </c>
       <c r="I26" t="n">
-        <v>68.35060767783276</v>
+        <v>68.35060767783274</v>
       </c>
       <c r="J26" t="n">
-        <v>276.768491925934</v>
+        <v>276.7684919259338</v>
       </c>
       <c r="K26" t="n">
-        <v>667.7570992512217</v>
+        <v>667.7570992512215</v>
       </c>
       <c r="L26" t="n">
         <v>1176.922512594155</v>
@@ -6236,7 +6236,7 @@
         <v>1737.503610597883</v>
       </c>
       <c r="N26" t="n">
-        <v>2284.145389077485</v>
+        <v>2284.145389077484</v>
       </c>
       <c r="O26" t="n">
         <v>2754.070898239648</v>
@@ -6245,16 +6245,16 @@
         <v>3138.733568124759</v>
       </c>
       <c r="Q26" t="n">
-        <v>3377.464299867856</v>
+        <v>3377.464299867855</v>
       </c>
       <c r="R26" t="n">
-        <v>3417.530383891638</v>
+        <v>3417.530383891637</v>
       </c>
       <c r="S26" t="n">
-        <v>3347.897769346221</v>
+        <v>3347.89776934622</v>
       </c>
       <c r="T26" t="n">
-        <v>3234.732409306706</v>
+        <v>3234.732409306705</v>
       </c>
       <c r="U26" t="n">
         <v>3089.546040900311</v>
@@ -6263,7 +6263,7 @@
         <v>2862.237911646664</v>
       </c>
       <c r="W26" t="n">
-        <v>2609.374126354677</v>
+        <v>2609.374126354676</v>
       </c>
       <c r="X26" t="n">
         <v>2337.015130726581</v>
@@ -6300,19 +6300,19 @@
         <v>130.3260909439199</v>
       </c>
       <c r="I27" t="n">
-        <v>68.35060767783276</v>
+        <v>68.35060767783274</v>
       </c>
       <c r="J27" t="n">
         <v>145.8356516965903</v>
       </c>
       <c r="K27" t="n">
-        <v>404.7765525567293</v>
+        <v>145.8356516965903</v>
       </c>
       <c r="L27" t="n">
-        <v>810.1980254148434</v>
+        <v>551.2571245547044</v>
       </c>
       <c r="M27" t="n">
-        <v>1341.442276643193</v>
+        <v>1082.501375783054</v>
       </c>
       <c r="N27" t="n">
         <v>1609.266562635949</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.0910103031506</v>
+        <v>394.0910103031508</v>
       </c>
       <c r="C28" t="n">
-        <v>334.1461856152425</v>
+        <v>334.1461856152426</v>
       </c>
       <c r="D28" t="n">
-        <v>290.7454372934168</v>
+        <v>290.7454372934169</v>
       </c>
       <c r="E28" t="n">
-        <v>248.4075679051472</v>
+        <v>248.4075679051473</v>
       </c>
       <c r="F28" t="n">
         <v>205.5980577813359</v>
@@ -6379,10 +6379,10 @@
         <v>98.19099146182614</v>
       </c>
       <c r="I28" t="n">
-        <v>68.35060767783276</v>
+        <v>68.35060767783274</v>
       </c>
       <c r="J28" t="n">
-        <v>127.7873085494225</v>
+        <v>127.7873085494224</v>
       </c>
       <c r="K28" t="n">
         <v>286.6445190313063</v>
@@ -6391,16 +6391,16 @@
         <v>517.4725185502041</v>
       </c>
       <c r="M28" t="n">
-        <v>766.9226640947269</v>
+        <v>766.9226640947268</v>
       </c>
       <c r="N28" t="n">
         <v>1016.231740972951</v>
       </c>
       <c r="O28" t="n">
-        <v>1192.506227543699</v>
+        <v>1243.795959157115</v>
       </c>
       <c r="P28" t="n">
-        <v>1381.45609948973</v>
+        <v>1432.745831103146</v>
       </c>
       <c r="Q28" t="n">
         <v>1463.97772664435</v>
@@ -6409,7 +6409,7 @@
         <v>1431.141672020683</v>
       </c>
       <c r="S28" t="n">
-        <v>1329.821807514658</v>
+        <v>1329.821807514659</v>
       </c>
       <c r="T28" t="n">
         <v>1206.980568832675</v>
@@ -6418,16 +6418,16 @@
         <v>1029.469983571998</v>
       </c>
       <c r="V28" t="n">
-        <v>878.4058239808321</v>
+        <v>878.4058239808325</v>
       </c>
       <c r="W28" t="n">
-        <v>701.9205673486429</v>
+        <v>701.9205673486431</v>
       </c>
       <c r="X28" t="n">
-        <v>580.3392480944302</v>
+        <v>580.3392480944304</v>
       </c>
       <c r="Y28" t="n">
-        <v>467.9752341371188</v>
+        <v>467.9752341371191</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1233.356591746078</v>
       </c>
       <c r="E29" t="n">
-        <v>948.2420167025966</v>
+        <v>948.2420167025959</v>
       </c>
       <c r="F29" t="n">
-        <v>643.7619708631786</v>
+        <v>643.7619708631777</v>
       </c>
       <c r="G29" t="n">
-        <v>337.6769170327839</v>
+        <v>337.6769170327829</v>
       </c>
       <c r="H29" t="n">
-        <v>118.0885699529933</v>
+        <v>118.0885699529931</v>
       </c>
       <c r="I29" t="n">
         <v>68.35060767783276</v>
       </c>
       <c r="J29" t="n">
-        <v>276.7684919259337</v>
+        <v>276.7684919259343</v>
       </c>
       <c r="K29" t="n">
-        <v>667.7570992512215</v>
+        <v>667.7570992512219</v>
       </c>
       <c r="L29" t="n">
         <v>1176.922512594155</v>
@@ -6473,7 +6473,7 @@
         <v>1737.503610597883</v>
       </c>
       <c r="N29" t="n">
-        <v>2284.145389077484</v>
+        <v>2284.145389077485</v>
       </c>
       <c r="O29" t="n">
         <v>2754.070898239649</v>
@@ -6488,16 +6488,16 @@
         <v>3417.530383891638</v>
       </c>
       <c r="S29" t="n">
-        <v>3347.89776934622</v>
+        <v>3347.897769346221</v>
       </c>
       <c r="T29" t="n">
-        <v>3234.732409306705</v>
+        <v>3234.732409306706</v>
       </c>
       <c r="U29" t="n">
-        <v>3089.546040900312</v>
+        <v>3089.546040900311</v>
       </c>
       <c r="V29" t="n">
-        <v>2862.237911646665</v>
+        <v>2862.237911646664</v>
       </c>
       <c r="W29" t="n">
         <v>2609.374126354677</v>
@@ -6549,7 +6549,7 @@
         <v>810.1980254148434</v>
       </c>
       <c r="M30" t="n">
-        <v>1341.442276643193</v>
+        <v>1050.566953836923</v>
       </c>
       <c r="N30" t="n">
         <v>1609.266562635949</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>394.0910103031506</v>
+        <v>394.0910103031512</v>
       </c>
       <c r="C31" t="n">
-        <v>334.1461856152425</v>
+        <v>334.146185615243</v>
       </c>
       <c r="D31" t="n">
-        <v>290.7454372934168</v>
+        <v>290.7454372934172</v>
       </c>
       <c r="E31" t="n">
-        <v>248.4075679051472</v>
+        <v>248.4075679051475</v>
       </c>
       <c r="F31" t="n">
-        <v>205.5980577813359</v>
+        <v>205.5980577813361</v>
       </c>
       <c r="G31" t="n">
-        <v>146.5054596628142</v>
+        <v>146.5054596628143</v>
       </c>
       <c r="H31" t="n">
-        <v>98.19099146182614</v>
+        <v>98.19099146182623</v>
       </c>
       <c r="I31" t="n">
         <v>68.35060767783276</v>
       </c>
       <c r="J31" t="n">
-        <v>127.7873085494225</v>
+        <v>76.49757693600904</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6445190313063</v>
+        <v>235.3547874178928</v>
       </c>
       <c r="L31" t="n">
-        <v>517.4725185502041</v>
+        <v>466.1827869367905</v>
       </c>
       <c r="M31" t="n">
-        <v>766.9226640947269</v>
+        <v>715.6329324813132</v>
       </c>
       <c r="N31" t="n">
-        <v>964.9420093595356</v>
+        <v>964.9420093595377</v>
       </c>
       <c r="O31" t="n">
-        <v>1192.506227543699</v>
+        <v>1192.506227543701</v>
       </c>
       <c r="P31" t="n">
-        <v>1381.45609948973</v>
+        <v>1381.456099489732</v>
       </c>
       <c r="Q31" t="n">
-        <v>1463.97772664435</v>
+        <v>1463.977726644352</v>
       </c>
       <c r="R31" t="n">
-        <v>1431.141672020683</v>
+        <v>1431.141672020685</v>
       </c>
       <c r="S31" t="n">
-        <v>1329.821807514658</v>
+        <v>1329.82180751466</v>
       </c>
       <c r="T31" t="n">
-        <v>1206.980568832675</v>
+        <v>1206.980568832676</v>
       </c>
       <c r="U31" t="n">
-        <v>1029.469983571998</v>
+        <v>1029.469983571999</v>
       </c>
       <c r="V31" t="n">
-        <v>878.4058239808321</v>
+        <v>878.4058239808332</v>
       </c>
       <c r="W31" t="n">
-        <v>701.9205673486429</v>
+        <v>701.9205673486438</v>
       </c>
       <c r="X31" t="n">
-        <v>580.3392480944302</v>
+        <v>580.339248094431</v>
       </c>
       <c r="Y31" t="n">
-        <v>467.9752341371188</v>
+        <v>467.9752341371196</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>936.1877426746419</v>
       </c>
       <c r="E32" t="n">
-        <v>708.5701937775522</v>
+        <v>708.5701937775523</v>
       </c>
       <c r="F32" t="n">
-        <v>461.5871740845259</v>
+        <v>461.5871740845263</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9991464005233</v>
+        <v>212.9991464005232</v>
       </c>
       <c r="H32" t="n">
         <v>50.90782546712563</v>
@@ -6713,7 +6713,7 @@
         <v>1729.259161527335</v>
       </c>
       <c r="O32" t="n">
-        <v>2136.975249863851</v>
+        <v>2091.695981621611</v>
       </c>
       <c r="P32" t="n">
         <v>2414.149230681073</v>
@@ -6725,13 +6725,13 @@
         <v>2545.391273356282</v>
       </c>
       <c r="S32" t="n">
-        <v>2533.255684957257</v>
+        <v>2533.255684957256</v>
       </c>
       <c r="T32" t="n">
-        <v>2477.587351064135</v>
+        <v>2477.587351064133</v>
       </c>
       <c r="U32" t="n">
-        <v>2389.898008804132</v>
+        <v>2389.898008804131</v>
       </c>
       <c r="V32" t="n">
         <v>2220.086905696876</v>
@@ -6777,16 +6777,16 @@
         <v>50.90782546712563</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3928694858832</v>
+        <v>96.45844753975376</v>
       </c>
       <c r="K33" t="n">
-        <v>387.3337703460221</v>
+        <v>96.45844753975376</v>
       </c>
       <c r="L33" t="n">
-        <v>792.7552432041361</v>
+        <v>501.8799203978679</v>
       </c>
       <c r="M33" t="n">
-        <v>1323.999494432485</v>
+        <v>1033.124171626217</v>
       </c>
       <c r="N33" t="n">
         <v>1591.823780425243</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.95119598077162</v>
+        <v>54.95119598077144</v>
       </c>
       <c r="C34" t="n">
-        <v>52.50339743925542</v>
+        <v>52.50339743925534</v>
       </c>
       <c r="D34" t="n">
-        <v>52.50339743925542</v>
+        <v>52.50339743925534</v>
       </c>
       <c r="E34" t="n">
-        <v>52.50339743925542</v>
+        <v>52.50339743925534</v>
       </c>
       <c r="F34" t="n">
-        <v>52.50339743925542</v>
+        <v>52.50339743925534</v>
       </c>
       <c r="G34" t="n">
         <v>50.90782546712563</v>
@@ -6880,28 +6880,28 @@
         <v>710.934213613519</v>
       </c>
       <c r="R34" t="n">
-        <v>710.934213613519</v>
+        <v>632.0256485271676</v>
       </c>
       <c r="S34" t="n">
-        <v>667.1113752538864</v>
+        <v>588.2028101675352</v>
       </c>
       <c r="T34" t="n">
-        <v>522.8585976319441</v>
+        <v>522.8585976319434</v>
       </c>
       <c r="U34" t="n">
-        <v>402.8450385176594</v>
+        <v>402.8450385176587</v>
       </c>
       <c r="V34" t="n">
-        <v>309.2779050728855</v>
+        <v>309.2779050728849</v>
       </c>
       <c r="W34" t="n">
-        <v>190.2896745870881</v>
+        <v>190.2896745870876</v>
       </c>
       <c r="X34" t="n">
-        <v>126.2053814792673</v>
+        <v>126.205381479267</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.33839366834793</v>
+        <v>71.33839366834768</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1356.609124121004</v>
+        <v>1356.609124121003</v>
       </c>
       <c r="C35" t="n">
-        <v>1141.843536450615</v>
+        <v>1141.843536450614</v>
       </c>
       <c r="D35" t="n">
-        <v>936.1877426746423</v>
+        <v>936.187742674641</v>
       </c>
       <c r="E35" t="n">
-        <v>708.5701937775527</v>
+        <v>708.5701937775513</v>
       </c>
       <c r="F35" t="n">
-        <v>461.5871740845266</v>
+        <v>461.587174084525</v>
       </c>
       <c r="G35" t="n">
         <v>212.9991464005233</v>
@@ -6932,7 +6932,7 @@
         <v>50.90782546712563</v>
       </c>
       <c r="I35" t="n">
-        <v>58.51248396731956</v>
+        <v>50.90782546712563</v>
       </c>
       <c r="J35" t="n">
         <v>197.1162888895784</v>
@@ -6962,25 +6962,25 @@
         <v>2545.391273356282</v>
       </c>
       <c r="S35" t="n">
-        <v>2533.255684957257</v>
+        <v>2533.255684957256</v>
       </c>
       <c r="T35" t="n">
-        <v>2477.587351064134</v>
+        <v>2477.587351064133</v>
       </c>
       <c r="U35" t="n">
-        <v>2389.898008804132</v>
+        <v>2389.898008804131</v>
       </c>
       <c r="V35" t="n">
-        <v>2220.086905696877</v>
+        <v>2220.086905696876</v>
       </c>
       <c r="W35" t="n">
-        <v>2024.720146551281</v>
+        <v>2024.72014655128</v>
       </c>
       <c r="X35" t="n">
-        <v>1809.858177069578</v>
+        <v>1809.858177069577</v>
       </c>
       <c r="Y35" t="n">
-        <v>1583.48449264222</v>
+        <v>1583.484492642219</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.8305318276667</v>
+        <v>921.8305318276678</v>
       </c>
       <c r="C36" t="n">
-        <v>760.1268590686215</v>
+        <v>760.1268590686225</v>
       </c>
       <c r="D36" t="n">
-        <v>621.2882220588335</v>
+        <v>621.2882220588345</v>
       </c>
       <c r="E36" t="n">
-        <v>474.2602121157048</v>
+        <v>474.2602121157058</v>
       </c>
       <c r="F36" t="n">
-        <v>339.5664140655791</v>
+        <v>339.5664140655801</v>
       </c>
       <c r="G36" t="n">
-        <v>211.0239970017298</v>
+        <v>211.0239970017307</v>
       </c>
       <c r="H36" t="n">
-        <v>112.8833087332127</v>
+        <v>112.8833087332137</v>
       </c>
       <c r="I36" t="n">
         <v>50.90782546712563</v>
@@ -7017,22 +7017,22 @@
         <v>128.3928694858832</v>
       </c>
       <c r="K36" t="n">
-        <v>387.3337703460221</v>
+        <v>128.3928694858832</v>
       </c>
       <c r="L36" t="n">
-        <v>792.7552432041361</v>
+        <v>533.8143423439973</v>
       </c>
       <c r="M36" t="n">
-        <v>1323.999494432485</v>
+        <v>1065.058593572347</v>
       </c>
       <c r="N36" t="n">
-        <v>1591.823780425243</v>
+        <v>1623.758202371373</v>
       </c>
       <c r="O36" t="n">
-        <v>2027.41654008104</v>
+        <v>2059.35096202717</v>
       </c>
       <c r="P36" t="n">
-        <v>2364.33901405384</v>
+        <v>2396.27343599997</v>
       </c>
       <c r="Q36" t="n">
         <v>2545.391273356282</v>
@@ -7050,16 +7050,16 @@
         <v>1941.399780399911</v>
       </c>
       <c r="V36" t="n">
-        <v>1713.004157848244</v>
+        <v>1713.004157848245</v>
       </c>
       <c r="W36" t="n">
-        <v>1471.688289081554</v>
+        <v>1471.688289081555</v>
       </c>
       <c r="X36" t="n">
-        <v>1273.771300959349</v>
+        <v>1273.77130095935</v>
       </c>
       <c r="Y36" t="n">
-        <v>1081.249974608928</v>
+        <v>1081.249974608929</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.95119598077156</v>
+        <v>54.95119598077162</v>
       </c>
       <c r="C37" t="n">
-        <v>52.50339743925539</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="D37" t="n">
-        <v>52.50339743925539</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="E37" t="n">
-        <v>52.50339743925539</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="F37" t="n">
-        <v>52.50339743925539</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="G37" t="n">
         <v>50.90782546712563</v>
@@ -7114,31 +7114,31 @@
         <v>710.934213613519</v>
       </c>
       <c r="Q37" t="n">
-        <v>685.460219211653</v>
+        <v>710.934213613519</v>
       </c>
       <c r="R37" t="n">
-        <v>685.460219211653</v>
+        <v>710.934213613519</v>
       </c>
       <c r="S37" t="n">
-        <v>641.6373808520204</v>
+        <v>588.202810167536</v>
       </c>
       <c r="T37" t="n">
-        <v>576.2931683164287</v>
+        <v>522.8585976319441</v>
       </c>
       <c r="U37" t="n">
-        <v>456.2796092021439</v>
+        <v>402.8450385176594</v>
       </c>
       <c r="V37" t="n">
-        <v>362.7124757573701</v>
+        <v>309.2779050728855</v>
       </c>
       <c r="W37" t="n">
-        <v>190.2896745870879</v>
+        <v>190.2896745870881</v>
       </c>
       <c r="X37" t="n">
-        <v>126.2053814792672</v>
+        <v>126.2053814792673</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.33839366834785</v>
+        <v>71.33839366834793</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1141.843536450615</v>
       </c>
       <c r="D38" t="n">
-        <v>936.1877426746421</v>
+        <v>936.1877426746425</v>
       </c>
       <c r="E38" t="n">
-        <v>708.5701937775525</v>
+        <v>708.570193777553</v>
       </c>
       <c r="F38" t="n">
-        <v>461.5871740845265</v>
+        <v>461.5871740845269</v>
       </c>
       <c r="G38" t="n">
-        <v>212.9991464005232</v>
+        <v>212.9991464005233</v>
       </c>
       <c r="H38" t="n">
         <v>50.90782546712563</v>
@@ -7190,34 +7190,34 @@
         <v>2091.695981621611</v>
       </c>
       <c r="P38" t="n">
-        <v>2368.869962438833</v>
+        <v>2414.149230681073</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.112005114041</v>
+        <v>2545.391273356282</v>
       </c>
       <c r="R38" t="n">
         <v>2545.391273356282</v>
       </c>
       <c r="S38" t="n">
-        <v>2533.255684957256</v>
+        <v>2533.255684957257</v>
       </c>
       <c r="T38" t="n">
-        <v>2477.587351064133</v>
+        <v>2477.587351064135</v>
       </c>
       <c r="U38" t="n">
-        <v>2389.898008804131</v>
+        <v>2389.898008804133</v>
       </c>
       <c r="V38" t="n">
-        <v>2220.086905696876</v>
+        <v>2220.086905696877</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.720146551281</v>
+        <v>2024.720146551282</v>
       </c>
       <c r="X38" t="n">
-        <v>1809.858177069578</v>
+        <v>1809.858177069579</v>
       </c>
       <c r="Y38" t="n">
-        <v>1583.484492642219</v>
+        <v>1583.48449264222</v>
       </c>
     </row>
     <row r="39">
@@ -7233,19 +7233,19 @@
         <v>760.1268590686225</v>
       </c>
       <c r="D39" t="n">
-        <v>621.2882220588335</v>
+        <v>621.2882220588345</v>
       </c>
       <c r="E39" t="n">
-        <v>474.2602121157048</v>
+        <v>474.2602121157058</v>
       </c>
       <c r="F39" t="n">
-        <v>339.5664140655791</v>
+        <v>339.5664140655801</v>
       </c>
       <c r="G39" t="n">
-        <v>211.0239970017298</v>
+        <v>211.0239970017307</v>
       </c>
       <c r="H39" t="n">
-        <v>112.8833087332127</v>
+        <v>112.8833087332137</v>
       </c>
       <c r="I39" t="n">
         <v>50.90782546712563</v>
@@ -7254,16 +7254,16 @@
         <v>128.3928694858832</v>
       </c>
       <c r="K39" t="n">
-        <v>387.3337703460221</v>
+        <v>128.3928694858832</v>
       </c>
       <c r="L39" t="n">
-        <v>792.7552432041361</v>
+        <v>533.8143423439973</v>
       </c>
       <c r="M39" t="n">
-        <v>1323.999494432485</v>
+        <v>1065.058593572347</v>
       </c>
       <c r="N39" t="n">
-        <v>1591.823780425243</v>
+        <v>1623.758202371373</v>
       </c>
       <c r="O39" t="n">
         <v>2027.41654008104</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.8597610671229</v>
+        <v>54.95119598077162</v>
       </c>
       <c r="C40" t="n">
-        <v>52.50339743925534</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="D40" t="n">
-        <v>52.50339743925534</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="E40" t="n">
-        <v>52.50339743925534</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="F40" t="n">
-        <v>52.50339743925534</v>
+        <v>52.50339743925542</v>
       </c>
       <c r="G40" t="n">
         <v>50.90782546712563</v>
@@ -7357,25 +7357,25 @@
         <v>710.934213613519</v>
       </c>
       <c r="S40" t="n">
-        <v>667.1113752538865</v>
+        <v>667.1113752538864</v>
       </c>
       <c r="T40" t="n">
-        <v>601.7671627182948</v>
+        <v>601.7671627182947</v>
       </c>
       <c r="U40" t="n">
-        <v>481.7536036040101</v>
+        <v>481.7536036040099</v>
       </c>
       <c r="V40" t="n">
-        <v>388.1864701592363</v>
+        <v>388.186470159236</v>
       </c>
       <c r="W40" t="n">
-        <v>269.198239673439</v>
+        <v>269.1982396734386</v>
       </c>
       <c r="X40" t="n">
-        <v>205.1139465656184</v>
+        <v>205.1139465656179</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.2469587546991</v>
+        <v>150.2469587546985</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1356.609124121004</v>
+        <v>1356.609124121005</v>
       </c>
       <c r="C41" t="n">
-        <v>1141.843536450615</v>
+        <v>1141.843536450616</v>
       </c>
       <c r="D41" t="n">
-        <v>936.1877426746421</v>
+        <v>936.187742674643</v>
       </c>
       <c r="E41" t="n">
-        <v>708.5701937775525</v>
+        <v>708.5701937775535</v>
       </c>
       <c r="F41" t="n">
-        <v>461.5871740845264</v>
+        <v>461.5871740845273</v>
       </c>
       <c r="G41" t="n">
-        <v>212.9991464005233</v>
+        <v>212.9991464005232</v>
       </c>
       <c r="H41" t="n">
         <v>50.90782546712563</v>
       </c>
       <c r="I41" t="n">
-        <v>50.90782546712563</v>
+        <v>58.51248396731967</v>
       </c>
       <c r="J41" t="n">
-        <v>197.1162888895784</v>
+        <v>159.4416791475323</v>
       </c>
       <c r="K41" t="n">
-        <v>480.6162071469777</v>
+        <v>442.9415974049316</v>
       </c>
       <c r="L41" t="n">
-        <v>882.2929314220224</v>
+        <v>844.6183216799764</v>
       </c>
       <c r="M41" t="n">
-        <v>1335.385340357862</v>
+        <v>1297.710730615816</v>
       </c>
       <c r="N41" t="n">
-        <v>1774.538429769575</v>
+        <v>1736.86382002753</v>
       </c>
       <c r="O41" t="n">
-        <v>2136.975249863851</v>
+        <v>2099.300640121805</v>
       </c>
       <c r="P41" t="n">
         <v>2414.149230681073</v>
@@ -7488,25 +7488,25 @@
         <v>50.90782546712563</v>
       </c>
       <c r="J42" t="n">
-        <v>128.3928694858832</v>
+        <v>50.90782546712563</v>
       </c>
       <c r="K42" t="n">
-        <v>387.3337703460221</v>
+        <v>309.8487263272646</v>
       </c>
       <c r="L42" t="n">
-        <v>792.7552432041361</v>
+        <v>682.932179700309</v>
       </c>
       <c r="M42" t="n">
-        <v>1323.999494432485</v>
+        <v>1214.176430928658</v>
       </c>
       <c r="N42" t="n">
-        <v>1591.823780425243</v>
+        <v>1772.876039727684</v>
       </c>
       <c r="O42" t="n">
-        <v>2027.41654008104</v>
+        <v>2208.468799383481</v>
       </c>
       <c r="P42" t="n">
-        <v>2364.33901405384</v>
+        <v>2545.391273356282</v>
       </c>
       <c r="Q42" t="n">
         <v>2545.391273356282</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.9788341771787</v>
+        <v>54.95119598077133</v>
       </c>
       <c r="C43" t="n">
-        <v>101.5310356356625</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5310356356625</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="E43" t="n">
-        <v>101.5310356356625</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="F43" t="n">
-        <v>101.5310356356625</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="G43" t="n">
-        <v>99.9354636635328</v>
+        <v>50.90782546712563</v>
       </c>
       <c r="H43" t="n">
-        <v>99.9354636635328</v>
+        <v>50.90782546712563</v>
       </c>
       <c r="I43" t="n">
-        <v>99.9354636635328</v>
+        <v>50.90782546712563</v>
       </c>
       <c r="J43" t="n">
         <v>50.90782546712563</v>
@@ -7594,25 +7594,25 @@
         <v>710.934213613519</v>
       </c>
       <c r="S43" t="n">
-        <v>637.2304483639425</v>
+        <v>667.1113752538865</v>
       </c>
       <c r="T43" t="n">
-        <v>571.8862358283508</v>
+        <v>522.858597631943</v>
       </c>
       <c r="U43" t="n">
-        <v>451.8726767140661</v>
+        <v>402.8450385176583</v>
       </c>
       <c r="V43" t="n">
-        <v>358.3055432692922</v>
+        <v>309.2779050728846</v>
       </c>
       <c r="W43" t="n">
-        <v>239.3173127834949</v>
+        <v>190.2896745870873</v>
       </c>
       <c r="X43" t="n">
-        <v>175.2330196756743</v>
+        <v>126.2053814792667</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.3660318647549</v>
+        <v>71.33839366834749</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1356.609124121004</v>
+        <v>1356.609124121005</v>
       </c>
       <c r="C44" t="n">
-        <v>1141.843536450614</v>
+        <v>1141.843536450616</v>
       </c>
       <c r="D44" t="n">
-        <v>936.1877426746419</v>
+        <v>936.187742674643</v>
       </c>
       <c r="E44" t="n">
-        <v>708.570193777552</v>
+        <v>708.5701937775535</v>
       </c>
       <c r="F44" t="n">
-        <v>461.5871740845259</v>
+        <v>461.5871740845275</v>
       </c>
       <c r="G44" t="n">
-        <v>212.9991464005233</v>
+        <v>212.999146400525</v>
       </c>
       <c r="H44" t="n">
         <v>50.90782546712563</v>
@@ -7667,7 +7667,7 @@
         <v>2368.869962438833</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.112005114041</v>
+        <v>2545.391273356282</v>
       </c>
       <c r="R44" t="n">
         <v>2545.391273356282</v>
@@ -7679,19 +7679,19 @@
         <v>2477.587351064133</v>
       </c>
       <c r="U44" t="n">
-        <v>2389.898008804131</v>
+        <v>2389.898008804132</v>
       </c>
       <c r="V44" t="n">
-        <v>2220.086905696876</v>
+        <v>2220.086905696877</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.720146551281</v>
+        <v>2024.720146551282</v>
       </c>
       <c r="X44" t="n">
-        <v>1809.858177069578</v>
+        <v>1809.858177069579</v>
       </c>
       <c r="Y44" t="n">
-        <v>1583.484492642219</v>
+        <v>1583.48449264222</v>
       </c>
     </row>
     <row r="45">
@@ -7731,10 +7731,10 @@
         <v>387.3337703460221</v>
       </c>
       <c r="L45" t="n">
-        <v>792.7552432041361</v>
+        <v>501.879920397867</v>
       </c>
       <c r="M45" t="n">
-        <v>1323.999494432485</v>
+        <v>1033.124171626216</v>
       </c>
       <c r="N45" t="n">
         <v>1591.823780425242</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.9511959807715</v>
+        <v>54.95119598077133</v>
       </c>
       <c r="C46" t="n">
-        <v>52.50339743925537</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="D46" t="n">
-        <v>52.50339743925537</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="E46" t="n">
-        <v>52.50339743925537</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="F46" t="n">
-        <v>52.50339743925537</v>
+        <v>52.50339743925528</v>
       </c>
       <c r="G46" t="n">
         <v>50.90782546712563</v>
@@ -7831,25 +7831,25 @@
         <v>710.934213613519</v>
       </c>
       <c r="S46" t="n">
-        <v>588.2028101675354</v>
+        <v>667.1113752538865</v>
       </c>
       <c r="T46" t="n">
-        <v>522.8585976319437</v>
+        <v>601.7671627182949</v>
       </c>
       <c r="U46" t="n">
-        <v>402.845038517659</v>
+        <v>481.7536036040103</v>
       </c>
       <c r="V46" t="n">
-        <v>309.2779050728851</v>
+        <v>388.1864701592365</v>
       </c>
       <c r="W46" t="n">
-        <v>190.2896745870878</v>
+        <v>269.1982396734393</v>
       </c>
       <c r="X46" t="n">
-        <v>126.2053814792671</v>
+        <v>126.2053814792667</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.33839366834776</v>
+        <v>71.33839366834749</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>181.9590657572489</v>
       </c>
       <c r="K2" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M2" t="n">
         <v>187.1563144971591</v>
@@ -7991,13 +7991,13 @@
         <v>322.1275134696619</v>
       </c>
       <c r="O2" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>245.3963899195954</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N3" t="n">
-        <v>176.0977499560457</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
         <v>251.5888479085429</v>
       </c>
       <c r="P3" t="n">
-        <v>244.5836053215751</v>
+        <v>239.0995891883455</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
         <v>322.1275134696619</v>
       </c>
       <c r="O5" t="n">
-        <v>284.8176621111053</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,16 +8295,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>242.2415523308688</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L6" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O6" t="n">
         <v>251.5888479085429</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8459,16 +8459,16 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
-        <v>540.92049142843</v>
+        <v>241.6165153693801</v>
       </c>
       <c r="N8" t="n">
-        <v>235.9601900505369</v>
+        <v>540.162291103501</v>
       </c>
       <c r="O8" t="n">
-        <v>495.0402356415689</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8532,16 +8532,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>231.2387871121281</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>353.7735894981946</v>
       </c>
       <c r="M9" t="n">
         <v>469.2480794929107</v>
       </c>
       <c r="N9" t="n">
-        <v>460.4793179989792</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
         <v>469.623625542382</v>
@@ -8766,16 +8766,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>85.65062471146322</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>265.4035073816964</v>
+        <v>82.24834260106034</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>527.4229564221018</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.21940405413804</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>85.65062471146322</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>82.52243737923058</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>74.45150726372863</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>85.65062471146322</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9255,10 +9255,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>172.4709230915586</v>
       </c>
       <c r="P18" t="n">
-        <v>152.7192284947963</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>142.5423569263071</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>283.5949946784294</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>283.5949946784294</v>
+        <v>283.594994678428</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>82.24834260106034</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>329.3316292665497</v>
+        <v>590.8880947818417</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>311.60312549493</v>
       </c>
       <c r="N30" t="n">
-        <v>329.3316292665497</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>131.6613540777543</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>82.24834260106034</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>329.3316292665506</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>82.24834260106034</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>329.3316292665506</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>240.8434821918265</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>82.24834260106034</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>329.3316292665506</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>479.7640231949711</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>85.65062471146322</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>449.4277827479619</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>329.3316292665506</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>90.21940405413804</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11379,13 +11379,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>188.278991514427</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>329.3316292665497</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>299.2252741946951</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>278.2178951969048</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>299.9600327668103</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>319.1318488547874</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>129.7303099128833</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>161.4311081960936</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.018669808624572</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0317509128311</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.92476140620468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>12.26615356058121</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.61109416815046</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>60.07801849633677</v>
       </c>
       <c r="G13" t="n">
-        <v>76.19827561110009</v>
+        <v>76.19827561110007</v>
       </c>
       <c r="H13" t="n">
-        <v>65.52792699274171</v>
+        <v>65.5279269927417</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>47.23858341991702</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.20429755119386</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>91.33603766074575</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>138.0621095354341</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.2365911523768</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>123.3358321248353</v>
+        <v>278.2178951969047</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>319.1318488547874</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>320.7208067658543</v>
       </c>
       <c r="H14" t="n">
         <v>235.0890670827553</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>242.7316514348742</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>268.0317509128311</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>3.265274807370417</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>77.04197991479263</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.61109416815042</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>60.07801849633672</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>76.19827561110003</v>
       </c>
       <c r="H16" t="n">
-        <v>65.52792699274171</v>
+        <v>65.52792699274165</v>
       </c>
       <c r="I16" t="n">
-        <v>47.23858341991703</v>
+        <v>47.23858341991698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.0032693347278</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>63.31259013784204</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>62.47045111177418</v>
       </c>
     </row>
     <row r="17">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>989359.408740008</v>
+        <v>989359.4087400082</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>422193.2332718</v>
       </c>
       <c r="C2" t="n">
-        <v>422193.2332718</v>
+        <v>422193.2332717999</v>
       </c>
       <c r="D2" t="n">
         <v>422193.2332717999</v>
       </c>
       <c r="E2" t="n">
-        <v>366666.1100516978</v>
+        <v>366666.1100516979</v>
       </c>
       <c r="F2" t="n">
-        <v>366666.1100516978</v>
+        <v>366666.1100516977</v>
       </c>
       <c r="G2" t="n">
-        <v>422193.2332718003</v>
+        <v>422193.2332718002</v>
       </c>
       <c r="H2" t="n">
-        <v>422193.2332718003</v>
+        <v>422193.2332718004</v>
       </c>
       <c r="I2" t="n">
-        <v>422193.2332718003</v>
+        <v>422193.2332718002</v>
       </c>
       <c r="J2" t="n">
-        <v>422193.2332717998</v>
+        <v>422193.2332717999</v>
       </c>
       <c r="K2" t="n">
         <v>422193.2332717999</v>
       </c>
       <c r="L2" t="n">
-        <v>422193.2332717999</v>
+        <v>422193.2332718</v>
       </c>
       <c r="M2" t="n">
         <v>422193.2332717999</v>
       </c>
       <c r="N2" t="n">
-        <v>422193.2332717998</v>
+        <v>422193.2332718</v>
       </c>
       <c r="O2" t="n">
+        <v>422193.2332718</v>
+      </c>
+      <c r="P2" t="n">
         <v>422193.2332717999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>422193.2332717998</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>222435.8419888237</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>62256.4403760858</v>
+        <v>62256.44037608575</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120185.5869962753</v>
+        <v>120185.5869962754</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>107794.0850840282</v>
+        <v>107794.0850840283</v>
       </c>
       <c r="M3" t="n">
-        <v>67542.45980322627</v>
+        <v>67542.45980322617</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24603.10634544014</v>
+        <v>24603.10634544025</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>329762.8518862008</v>
       </c>
       <c r="D4" t="n">
-        <v>286799.3611105509</v>
+        <v>286799.3611105508</v>
       </c>
       <c r="E4" t="n">
         <v>164408.9119451365</v>
       </c>
       <c r="F4" t="n">
-        <v>164408.9119451365</v>
+        <v>164408.9119451366</v>
       </c>
       <c r="G4" t="n">
         <v>221831.0491885544</v>
@@ -26439,10 +26439,10 @@
         <v>221831.0491885544</v>
       </c>
       <c r="J4" t="n">
-        <v>222199.7625628288</v>
+        <v>222199.7625628287</v>
       </c>
       <c r="K4" t="n">
-        <v>222199.7625628288</v>
+        <v>222199.7625628287</v>
       </c>
       <c r="L4" t="n">
         <v>221086.8310998885</v>
@@ -26454,7 +26454,7 @@
         <v>221086.8310998885</v>
       </c>
       <c r="O4" t="n">
-        <v>221086.8310998885</v>
+        <v>221086.8310998886</v>
       </c>
       <c r="P4" t="n">
         <v>221086.8310998886</v>
@@ -26482,34 +26482,34 @@
         <v>47494.77192665049</v>
       </c>
       <c r="G5" t="n">
-        <v>54037.06778412193</v>
+        <v>54037.06778412194</v>
       </c>
       <c r="H5" t="n">
-        <v>54037.06778412193</v>
+        <v>54037.06778412194</v>
       </c>
       <c r="I5" t="n">
-        <v>54037.06778412193</v>
+        <v>54037.06778412191</v>
       </c>
       <c r="J5" t="n">
-        <v>62941.31285532787</v>
+        <v>62941.31285532784</v>
       </c>
       <c r="K5" t="n">
-        <v>62941.31285532787</v>
+        <v>62941.31285532785</v>
       </c>
       <c r="L5" t="n">
+        <v>54470.17869138047</v>
+      </c>
+      <c r="M5" t="n">
         <v>54470.17869138046</v>
       </c>
-      <c r="M5" t="n">
-        <v>54470.17869138047</v>
-      </c>
       <c r="N5" t="n">
-        <v>54470.17869138047</v>
+        <v>54470.17869138046</v>
       </c>
       <c r="O5" t="n">
-        <v>54470.17869138047</v>
+        <v>54470.17869138048</v>
       </c>
       <c r="P5" t="n">
-        <v>54470.17869138047</v>
+        <v>54470.17869138048</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26522,19 @@
         <v>5064.390427562095</v>
       </c>
       <c r="C6" t="n">
-        <v>50550.4339083153</v>
+        <v>50550.43390831524</v>
       </c>
       <c r="D6" t="n">
-        <v>12529.26722742827</v>
+        <v>12529.26722742838</v>
       </c>
       <c r="E6" t="n">
-        <v>-67673.41580891295</v>
+        <v>-67925.81182354961</v>
       </c>
       <c r="F6" t="n">
-        <v>154762.4261799108</v>
+        <v>154510.0301652738</v>
       </c>
       <c r="G6" t="n">
-        <v>84068.67592303813</v>
+        <v>84068.6759230381</v>
       </c>
       <c r="H6" t="n">
         <v>146325.116299124</v>
@@ -26543,22 +26543,22 @@
         <v>146325.116299124</v>
       </c>
       <c r="J6" t="n">
-        <v>16866.57085736781</v>
+        <v>16866.57085736795</v>
       </c>
       <c r="K6" t="n">
         <v>137052.1578536433</v>
       </c>
       <c r="L6" t="n">
-        <v>38842.13839650279</v>
+        <v>38842.13839650266</v>
       </c>
       <c r="M6" t="n">
-        <v>79093.76367730463</v>
+        <v>79093.76367730476</v>
       </c>
       <c r="N6" t="n">
-        <v>146636.2234805307</v>
+        <v>146636.2234805311</v>
       </c>
       <c r="O6" t="n">
-        <v>122033.1171350908</v>
+        <v>122033.1171350907</v>
       </c>
       <c r="P6" t="n">
         <v>146636.2234805308</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="F2" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="G2" t="n">
         <v>168.6983803982511</v>
@@ -26707,25 +26707,25 @@
         <v>168.6983803982511</v>
       </c>
       <c r="J2" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="K2" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="L2" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="M2" t="n">
         <v>165.4964892868355</v>
       </c>
       <c r="N2" t="n">
+        <v>165.4964892868355</v>
+      </c>
+      <c r="O2" t="n">
         <v>165.4964892868356</v>
       </c>
-      <c r="O2" t="n">
-        <v>165.4964892868355</v>
-      </c>
       <c r="P2" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
     <row r="3">
@@ -26802,16 +26802,16 @@
         <v>624.7969846038052</v>
       </c>
       <c r="G4" t="n">
-        <v>624.7969846038051</v>
+        <v>624.7969846038052</v>
       </c>
       <c r="H4" t="n">
-        <v>624.7969846038051</v>
+        <v>624.7969846038052</v>
       </c>
       <c r="I4" t="n">
-        <v>624.7969846038051</v>
+        <v>624.7969846038047</v>
       </c>
       <c r="J4" t="n">
-        <v>854.3825959729095</v>
+        <v>854.3825959729093</v>
       </c>
       <c r="K4" t="n">
         <v>854.3825959729095</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>77.82055047010725</v>
+        <v>77.82055047010719</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30.75388293180021</v>
+        <v>30.75388293180019</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>134.7426063550353</v>
+        <v>134.7426063550354</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.75388293180018</v>
+        <v>30.75388293180032</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>365.3150106665362</v>
+        <v>365.3150106665363</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>77.82055047010725</v>
+        <v>77.82055047010719</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.75388293180021</v>
+        <v>30.75388293180019</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>292.3924917791759</v>
+        <v>392.1340742012125</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27445,7 +27445,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>1.720851342258271</v>
+        <v>77.08622195451581</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U3" t="n">
-        <v>94.37685034868767</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>48.36935494175857</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27585,25 +27585,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>92.02221006917138</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>276.2135473829221</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I5" t="n">
-        <v>151.2801543241506</v>
+        <v>73.49119736539927</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27676,13 +27676,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>99.7226073462806</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E6" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27713,7 +27713,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>15.54209281995534</v>
       </c>
       <c r="T6" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>144.0858257966451</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>62.1693600963581</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27792,7 +27792,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>61.36252698501825</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27825,19 +27825,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.33892719156808</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>15.33154819377779</v>
+        <v>250.5418903505625</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>56.24550185166049</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>285.70414525524</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27913,13 +27913,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>5.1454039097041</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>24.44566214245071</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>35.84225993864948</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>29.69017183011098</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.59390006515862</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>38.93235352442622</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.53195221146738</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="C11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="D11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="E11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="F11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="G11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="H11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="I11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>68.10364145869312</v>
       </c>
       <c r="S11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="T11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="U11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="V11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="W11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="X11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="Y11" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>44.82647555981622</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="C13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="D13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="E13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="F13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="G13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="H13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="I13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="J13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="K13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="L13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="M13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="N13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="O13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="P13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="R13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="S13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="T13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="U13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="V13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="W13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="X13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814388</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="C14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="D14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="E14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="F14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="G14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="H14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="I14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>68.10364145869312</v>
       </c>
       <c r="S14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="T14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="U14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="V14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="W14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="X14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="Y14" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
     </row>
     <row r="15">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>44.82647555981623</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="C16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="D16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="E16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="F16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="G16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="H16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="I16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="J16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="K16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="L16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="M16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="N16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="O16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="P16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="R16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="S16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="T16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="U16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="V16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="W16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="X16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.87782992814387</v>
+        <v>90.87782992814392</v>
       </c>
     </row>
     <row r="17">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.82647555981622</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.82647555981694</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.21925445784731</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>141.0821274793377</v>
@@ -28773,7 +28773,7 @@
         <v>168.6983803982511</v>
       </c>
       <c r="T19" t="n">
-        <v>168.6983803982511</v>
+        <v>86.18008972077678</v>
       </c>
       <c r="U19" t="n">
         <v>168.6983803982511</v>
@@ -28788,7 +28788,7 @@
         <v>168.6983803982511</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.96083526292941</v>
+        <v>168.6983803982511</v>
       </c>
     </row>
     <row r="20">
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="R20" t="n">
         <v>68.10364145869312</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>44.82647555981621</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>44.82647555981674</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>168.6983803982511</v>
       </c>
       <c r="V22" t="n">
-        <v>60.96083526292938</v>
+        <v>168.6983803982511</v>
       </c>
       <c r="W22" t="n">
         <v>168.6983803982511</v>
@@ -29025,7 +29025,7 @@
         <v>168.6983803982511</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.6983803982511</v>
+        <v>60.96083526292941</v>
       </c>
     </row>
     <row r="23">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>44.82647555981797</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.82647555981654</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>141.0821274793377</v>
       </c>
       <c r="S25" t="n">
-        <v>168.6983803982511</v>
+        <v>60.96083526292941</v>
       </c>
       <c r="T25" t="n">
         <v>168.6983803982511</v>
@@ -29262,7 +29262,7 @@
         <v>168.6983803982511</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.96083526292941</v>
+        <v>168.6983803982511</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="C26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="D26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="I26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="K26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="L26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="M26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="N26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="O26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="P26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Q26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="R26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="S26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="T26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="U26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="V26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="W26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="X26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Y26" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="C28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="D28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="E28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="F28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="G28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="H28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="I28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="J28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="K28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="L28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="M28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="N28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="O28" t="n">
-        <v>56.76662369138641</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="P28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.5744334019075</v>
+        <v>56.76662369138721</v>
       </c>
       <c r="R28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="S28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="T28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="U28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="V28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="W28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="X28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="C29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="D29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="E29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="I29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="K29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="L29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="M29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="N29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="O29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="P29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Q29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="R29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="S29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="T29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="U29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="V29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="W29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="X29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Y29" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="C31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="D31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="E31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="F31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="G31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="H31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="I31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="J31" t="n">
-        <v>108.5744334019075</v>
+        <v>56.76662369138883</v>
       </c>
       <c r="K31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="L31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="M31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="N31" t="n">
-        <v>56.76662369138646</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="O31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="P31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="R31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="S31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="T31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="U31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="V31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="W31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="X31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5744334019075</v>
+        <v>108.5744334019074</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="C32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="D32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="E32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="F32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="G32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="H32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="I32" t="n">
         <v>157.8150160543164</v>
@@ -29785,10 +29785,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>45.73663458812121</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>45.73663458812115</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>68.10364145869312</v>
       </c>
       <c r="S32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="T32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="U32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="V32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="W32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="X32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
     <row r="33">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="C34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29919,7 +29919,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="H34" t="n">
         <v>156.4057569208856</v>
@@ -29952,28 +29952,28 @@
         <v>25.21925445784731</v>
       </c>
       <c r="R34" t="n">
-        <v>141.0821274793377</v>
+        <v>62.9626480438499</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="T34" t="n">
-        <v>87.37700985134848</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="U34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="V34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="W34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="X34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
     <row r="35">
@@ -30004,10 +30004,10 @@
         <v>165.4964892868355</v>
       </c>
       <c r="I35" t="n">
-        <v>165.4964892868355</v>
+        <v>157.8150160543164</v>
       </c>
       <c r="J35" t="n">
-        <v>38.05516135560228</v>
+        <v>45.7366345881214</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-9.734435479913373e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>25.21925445784731</v>
       </c>
       <c r="R37" t="n">
         <v>141.0821274793377</v>
       </c>
       <c r="S37" t="n">
-        <v>165.4964892868355</v>
+        <v>87.37700985134855</v>
       </c>
       <c r="T37" t="n">
         <v>165.4964892868355</v>
@@ -30204,7 +30204,7 @@
         <v>165.4964892868355</v>
       </c>
       <c r="W37" t="n">
-        <v>112.5962643091955</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="X37" t="n">
         <v>165.4964892868355</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="C38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="D38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="E38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="F38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="G38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="H38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="I38" t="n">
         <v>157.8150160543164</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>45.73663458812115</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>113.8402760468144</v>
+        <v>68.10364145869312</v>
       </c>
       <c r="S38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="T38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="U38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="V38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="W38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="X38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-9.734435479913373e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.4964892868356</v>
+        <v>87.37700985134843</v>
       </c>
       <c r="C40" t="n">
-        <v>87.37700985134767</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="H40" t="n">
         <v>156.4057569208856</v>
@@ -30429,25 +30429,25 @@
         <v>141.0821274793377</v>
       </c>
       <c r="S40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="T40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="U40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="V40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="W40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="X40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.4964892868356</v>
+        <v>165.4964892868355</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="C41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="D41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="E41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="F41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="G41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="H41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="I41" t="n">
-        <v>157.8150160543164</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="J41" t="n">
-        <v>45.7366345881214</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>38.05516135560185</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>68.10364145869312</v>
       </c>
       <c r="S41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="T41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="U41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="V41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="W41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="X41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="C43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="H43" t="n">
         <v>156.4057569208856</v>
@@ -30639,7 +30639,7 @@
         <v>138.1164133480609</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>48.53736181444309</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>141.0821274793377</v>
       </c>
       <c r="S43" t="n">
-        <v>135.914371665791</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="T43" t="n">
-        <v>165.4964892868355</v>
+        <v>87.37700985134722</v>
       </c>
       <c r="U43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="V43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="W43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="X43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="C44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="D44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="E44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="F44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="G44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="H44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="I44" t="n">
         <v>157.8150160543164</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>45.73663458812121</v>
       </c>
       <c r="R44" t="n">
-        <v>113.8402760468144</v>
+        <v>68.10364145869312</v>
       </c>
       <c r="S44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="T44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="U44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="V44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="W44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="X44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="C46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="H46" t="n">
         <v>156.4057569208856</v>
@@ -30903,25 +30903,25 @@
         <v>141.0821274793377</v>
       </c>
       <c r="S46" t="n">
-        <v>87.37700985134798</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="T46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="U46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="V46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="W46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
       <c r="X46" t="n">
-        <v>165.4964892868355</v>
+        <v>87.3770098513472</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.4964892868355</v>
+        <v>165.4964892868356</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>34.85926832931629</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="P2" t="n">
-        <v>57.51958086843889</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P3" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="Q3" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O5" t="n">
-        <v>97.8628653309848</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="L6" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>135.7293992974318</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35179,16 +35179,16 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
+        <v>54.46020087222097</v>
+      </c>
+      <c r="N8" t="n">
         <v>353.7641769312709</v>
       </c>
-      <c r="N8" t="n">
-        <v>49.56207587830672</v>
-      </c>
       <c r="O8" t="n">
-        <v>308.0854388614484</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35252,16 +35252,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>119.2426179454614</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>241.1981559270468</v>
       </c>
       <c r="M9" t="n">
         <v>353.7641769312709</v>
       </c>
       <c r="N9" t="n">
-        <v>353.7641769312709</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>353.7641769312709</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>78.26772123106826</v>
       </c>
       <c r="K12" t="n">
-        <v>183.155164780636</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>409.5166392506203</v>
       </c>
       <c r="M12" t="n">
-        <v>536.6103547761103</v>
+        <v>458.6167283232123</v>
       </c>
       <c r="N12" t="n">
         <v>564.3430391909353</v>
@@ -35507,7 +35507,7 @@
         <v>340.3257312856566</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>182.8810700024658</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.34046811370078</v>
+        <v>42.34046811370079</v>
       </c>
       <c r="K13" t="n">
         <v>142.7652252958161</v>
@@ -35580,13 +35580,13 @@
         <v>234.1307469082814</v>
       </c>
       <c r="O13" t="n">
-        <v>212.1662431769069</v>
+        <v>212.166243176907</v>
       </c>
       <c r="P13" t="n">
         <v>173.1618530373787</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.65857547029655</v>
+        <v>65.65857547029657</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>78.26772123106826</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2740947781702439</v>
+        <v>261.5564655152918</v>
       </c>
       <c r="L15" t="n">
         <v>409.5166392506203</v>
@@ -35741,7 +35741,7 @@
         <v>439.9926865210073</v>
       </c>
       <c r="P15" t="n">
-        <v>340.3257312856566</v>
+        <v>0.7756393174669497</v>
       </c>
       <c r="Q15" t="n">
         <v>182.8810700024658</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.34046811370078</v>
+        <v>42.34046811370084</v>
       </c>
       <c r="K16" t="n">
         <v>142.7652252958161</v>
@@ -35814,16 +35814,16 @@
         <v>234.2732405106029</v>
       </c>
       <c r="N16" t="n">
-        <v>234.1307469082814</v>
+        <v>234.1307469082815</v>
       </c>
       <c r="O16" t="n">
-        <v>212.1662431769069</v>
+        <v>212.166243176907</v>
       </c>
       <c r="P16" t="n">
         <v>173.1618530373787</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.65857547029655</v>
+        <v>65.65857547029661</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>78.26772123106826</v>
       </c>
       <c r="K18" t="n">
         <v>261.5564655152918</v>
@@ -35975,10 +35975,10 @@
         <v>564.3430391909353</v>
       </c>
       <c r="O18" t="n">
-        <v>439.9926865210073</v>
+        <v>100.4425945528175</v>
       </c>
       <c r="P18" t="n">
-        <v>79.04336054853461</v>
+        <v>340.3257312856566</v>
       </c>
       <c r="Q18" t="n">
         <v>182.8810700024658</v>
@@ -36139,7 +36139,7 @@
         <v>279.973717997194</v>
       </c>
       <c r="Q20" t="n">
-        <v>132.5677198739478</v>
+        <v>132.5677198739482</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>261.5564655152918</v>
       </c>
       <c r="L21" t="n">
-        <v>409.5166392506203</v>
+        <v>69.96654728243047</v>
       </c>
       <c r="M21" t="n">
         <v>536.6103547761103</v>
       </c>
       <c r="N21" t="n">
-        <v>224.7929472227451</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O21" t="n">
         <v>439.9926865210073</v>
@@ -36358,7 +36358,7 @@
         <v>101.9486820002147</v>
       </c>
       <c r="K23" t="n">
-        <v>286.3635537953529</v>
+        <v>286.3635537953517</v>
       </c>
       <c r="L23" t="n">
         <v>405.7340649242876</v>
@@ -36373,7 +36373,7 @@
         <v>366.0977980750262</v>
       </c>
       <c r="P23" t="n">
-        <v>279.9737179971939</v>
+        <v>279.973717997194</v>
       </c>
       <c r="Q23" t="n">
         <v>132.5677198739478</v>
@@ -36446,7 +36446,7 @@
         <v>536.6103547761103</v>
       </c>
       <c r="N24" t="n">
-        <v>224.7929472227451</v>
+        <v>224.7929472227437</v>
       </c>
       <c r="O24" t="n">
         <v>439.9926865210073</v>
@@ -36607,16 +36607,16 @@
         <v>552.1634126056582</v>
       </c>
       <c r="O26" t="n">
-        <v>474.6722314769337</v>
+        <v>474.6722314769336</v>
       </c>
       <c r="P26" t="n">
-        <v>388.5481513991015</v>
+        <v>388.5481513991014</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.1421532758553</v>
+        <v>241.1421532758552</v>
       </c>
       <c r="R26" t="n">
-        <v>40.47079194321434</v>
+        <v>40.47079194321431</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>78.26772123106826</v>
       </c>
       <c r="K27" t="n">
-        <v>261.5564655152918</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>409.5166392506203</v>
@@ -36683,7 +36683,7 @@
         <v>536.6103547761103</v>
       </c>
       <c r="N27" t="n">
-        <v>270.5295818108655</v>
+        <v>532.0860473261574</v>
       </c>
       <c r="O27" t="n">
         <v>439.9926865210073</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.03707158746437</v>
+        <v>60.03707158746434</v>
       </c>
       <c r="K28" t="n">
-        <v>160.4618287695797</v>
+        <v>160.4618287695796</v>
       </c>
       <c r="L28" t="n">
         <v>233.1595954736341</v>
       </c>
       <c r="M28" t="n">
-        <v>251.9698439843665</v>
+        <v>251.9698439843664</v>
       </c>
       <c r="N28" t="n">
         <v>251.827350382045</v>
       </c>
       <c r="O28" t="n">
-        <v>178.0550369401495</v>
+        <v>229.8628466506705</v>
       </c>
       <c r="P28" t="n">
-        <v>190.8584565111423</v>
+        <v>190.8584565111422</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.35517894406014</v>
+        <v>31.54736923353989</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>210.5231154021222</v>
+        <v>210.5231154021221</v>
       </c>
       <c r="K29" t="n">
-        <v>394.9379871972603</v>
+        <v>394.9379871972602</v>
       </c>
       <c r="L29" t="n">
-        <v>514.308498326195</v>
+        <v>514.3084983261949</v>
       </c>
       <c r="M29" t="n">
-        <v>566.2435333370993</v>
+        <v>566.2435333370992</v>
       </c>
       <c r="N29" t="n">
         <v>552.1634126056582</v>
@@ -36847,13 +36847,13 @@
         <v>474.6722314769336</v>
       </c>
       <c r="P29" t="n">
-        <v>388.5481513991015</v>
+        <v>388.5481513991014</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.1421532758553</v>
+        <v>241.1421532758552</v>
       </c>
       <c r="R29" t="n">
-        <v>40.47079194321434</v>
+        <v>40.47079194321425</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>409.5166392506203</v>
       </c>
       <c r="M30" t="n">
-        <v>536.6103547761103</v>
+        <v>242.7968973960404</v>
       </c>
       <c r="N30" t="n">
-        <v>270.5295818108655</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O30" t="n">
         <v>439.9926865210073</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.03707158746437</v>
+        <v>8.229261876945742</v>
       </c>
       <c r="K31" t="n">
-        <v>160.4618287695797</v>
+        <v>160.4618287695796</v>
       </c>
       <c r="L31" t="n">
         <v>233.1595954736341</v>
       </c>
       <c r="M31" t="n">
-        <v>251.9698439843665</v>
+        <v>251.9698439843663</v>
       </c>
       <c r="N31" t="n">
-        <v>200.019540671524</v>
+        <v>251.8273503820449</v>
       </c>
       <c r="O31" t="n">
-        <v>229.8628466506705</v>
+        <v>229.8628466506704</v>
       </c>
       <c r="P31" t="n">
-        <v>190.8584565111423</v>
+        <v>190.8584565111422</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.35517894406014</v>
+        <v>83.35517894406006</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>443.5889792037508</v>
       </c>
       <c r="O32" t="n">
-        <v>411.8344326631474</v>
+        <v>366.0977980750262</v>
       </c>
       <c r="P32" t="n">
-        <v>279.973717997194</v>
+        <v>325.7103525853151</v>
       </c>
       <c r="Q32" t="n">
         <v>132.5677198739478</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>78.26772123106826</v>
+        <v>46.01072936629104</v>
       </c>
       <c r="K33" t="n">
-        <v>261.5564655152918</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>409.5166392506203</v>
@@ -37157,7 +37157,7 @@
         <v>536.6103547761103</v>
       </c>
       <c r="N33" t="n">
-        <v>270.5295818108664</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O33" t="n">
         <v>439.9926865210073</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.681473232519121</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>140.003843355817</v>
+        <v>147.6853165883361</v>
       </c>
       <c r="K35" t="n">
         <v>286.3635537953529</v>
@@ -37385,7 +37385,7 @@
         <v>78.26772123106826</v>
       </c>
       <c r="K36" t="n">
-        <v>261.5564655152918</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>409.5166392506203</v>
@@ -37394,7 +37394,7 @@
         <v>536.6103547761103</v>
       </c>
       <c r="N36" t="n">
-        <v>270.5295818108664</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O36" t="n">
         <v>439.9926865210073</v>
@@ -37403,7 +37403,7 @@
         <v>340.3257312856566</v>
       </c>
       <c r="Q36" t="n">
-        <v>182.8810700024658</v>
+        <v>150.6240781376885</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>366.0977980750262</v>
       </c>
       <c r="P38" t="n">
-        <v>279.973717997194</v>
+        <v>325.7103525853151</v>
       </c>
       <c r="Q38" t="n">
         <v>132.5677198739478</v>
       </c>
       <c r="R38" t="n">
-        <v>45.73663458812126</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>78.26772123106826</v>
       </c>
       <c r="K39" t="n">
-        <v>261.5564655152918</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>409.5166392506203</v>
@@ -37631,10 +37631,10 @@
         <v>536.6103547761103</v>
       </c>
       <c r="N39" t="n">
-        <v>270.5295818108664</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O39" t="n">
-        <v>439.9926865210073</v>
+        <v>407.73569465623</v>
       </c>
       <c r="P39" t="n">
         <v>340.3257312856566</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.681473232519235</v>
       </c>
       <c r="J41" t="n">
-        <v>147.6853165883361</v>
+        <v>101.9486820002147</v>
       </c>
       <c r="K41" t="n">
         <v>286.3635537953529</v>
@@ -37795,7 +37795,7 @@
         <v>366.0977980750262</v>
       </c>
       <c r="P41" t="n">
-        <v>279.973717997194</v>
+        <v>318.0288793527959</v>
       </c>
       <c r="Q41" t="n">
         <v>132.5677198739478</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>78.26772123106826</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>261.5564655152918</v>
       </c>
       <c r="L42" t="n">
-        <v>409.5166392506203</v>
+        <v>376.8519731040853</v>
       </c>
       <c r="M42" t="n">
         <v>536.6103547761103</v>
       </c>
       <c r="N42" t="n">
-        <v>270.5295818108664</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O42" t="n">
         <v>439.9926865210073</v>
@@ -37877,7 +37877,7 @@
         <v>340.3257312856566</v>
       </c>
       <c r="Q42" t="n">
-        <v>182.8810700024658</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>279.973717997194</v>
       </c>
       <c r="Q44" t="n">
-        <v>132.5677198739478</v>
+        <v>178.304354462069</v>
       </c>
       <c r="R44" t="n">
-        <v>45.73663458812126</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>261.5564655152918</v>
       </c>
       <c r="L45" t="n">
-        <v>409.5166392506203</v>
+        <v>115.7031818705504</v>
       </c>
       <c r="M45" t="n">
         <v>536.6103547761103</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5295818108655</v>
+        <v>564.3430391909353</v>
       </c>
       <c r="O45" t="n">
         <v>439.9926865210073</v>
